--- a/model/AgrcultureDataset_Maharashtra_2.0.xlsx
+++ b/model/AgrcultureDataset_Maharashtra_2.0.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2B1E56-D9CC-446F-911F-57256C96ABD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -727,7 +728,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -811,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -826,24 +827,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1120,14 +1113,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14046,10 +14039,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F569" sqref="F569"/>
     </sheetView>
   </sheetViews>
@@ -14058,8 +14051,8 @@
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="30.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14073,10 +14066,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -14093,10 +14086,10 @@
       <c r="C2">
         <v>1997</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="1">
         <v>372.8</v>
       </c>
       <c r="F2" s="6">
@@ -14113,10 +14106,10 @@
       <c r="C3">
         <v>1997</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="1">
         <v>372.8</v>
       </c>
       <c r="F3" s="5">
@@ -14133,10 +14126,10 @@
       <c r="C4">
         <v>1997</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="1">
         <v>372.8</v>
       </c>
       <c r="F4" s="5">
@@ -14153,10 +14146,10 @@
       <c r="C5">
         <v>1997</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="1">
         <v>372.8</v>
       </c>
       <c r="F5" s="5">
@@ -14173,10 +14166,10 @@
       <c r="C6">
         <v>1997</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="1">
         <v>372.8</v>
       </c>
       <c r="F6" s="5">
@@ -14193,10 +14186,10 @@
       <c r="C7">
         <v>1997</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="1">
         <v>372.8</v>
       </c>
       <c r="F7" s="5">
@@ -14213,10 +14206,10 @@
       <c r="C8">
         <v>1997</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="1">
         <v>372.8</v>
       </c>
       <c r="F8" s="5">
@@ -14233,10 +14226,10 @@
       <c r="C9">
         <v>1997</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="1">
         <v>372.8</v>
       </c>
       <c r="F9" s="5">
@@ -14253,10 +14246,10 @@
       <c r="C10">
         <v>1997</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="1">
         <v>372.8</v>
       </c>
       <c r="F10" s="5">
@@ -14273,10 +14266,10 @@
       <c r="C11">
         <v>1997</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" t="s">
         <v>210</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="1">
         <v>372.8</v>
       </c>
       <c r="F11" s="5">
@@ -14293,10 +14286,10 @@
       <c r="C12">
         <v>1997</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="1">
         <v>372.8</v>
       </c>
       <c r="F12" s="5">
@@ -14313,10 +14306,10 @@
       <c r="C13">
         <v>1997</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" t="s">
         <v>221</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="1">
         <v>372.8</v>
       </c>
       <c r="F13" s="5">
@@ -14333,10 +14326,10 @@
       <c r="C14">
         <v>1997</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="1">
         <v>372.8</v>
       </c>
       <c r="F14" s="5">
@@ -14353,10 +14346,10 @@
       <c r="C15">
         <v>1997</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="1">
         <v>372.8</v>
       </c>
       <c r="F15" s="5">
@@ -14373,10 +14366,10 @@
       <c r="C16">
         <v>1997</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="1">
         <v>372.8</v>
       </c>
       <c r="F16" s="5">
@@ -14393,10 +14386,10 @@
       <c r="C17">
         <v>1997</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="1">
         <v>372.8</v>
       </c>
       <c r="F17" s="5">
@@ -14413,10 +14406,10 @@
       <c r="C18">
         <v>1997</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="1">
         <v>372.8</v>
       </c>
       <c r="F18" s="5">
@@ -14433,10 +14426,10 @@
       <c r="C19">
         <v>1997</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="1">
         <v>372.8</v>
       </c>
       <c r="F19" s="5">
@@ -14453,10 +14446,10 @@
       <c r="C20">
         <v>1997</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>227</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="1">
         <v>372.8</v>
       </c>
       <c r="F20" s="5">
@@ -14473,10 +14466,10 @@
       <c r="C21">
         <v>1997</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" t="s">
         <v>228</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="1">
         <v>372.8</v>
       </c>
       <c r="F21" s="5">
@@ -14493,10 +14486,10 @@
       <c r="C22">
         <v>1997</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="1">
         <v>372.8</v>
       </c>
       <c r="F22" s="5">
@@ -14513,10 +14506,10 @@
       <c r="C23">
         <v>1998</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" t="s">
         <v>212</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="1">
         <v>776.4</v>
       </c>
       <c r="F23" s="6">
@@ -14533,10 +14526,10 @@
       <c r="C24">
         <v>1998</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="1">
         <v>776.4</v>
       </c>
       <c r="F24" s="5">
@@ -14553,10 +14546,10 @@
       <c r="C25">
         <v>1998</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" t="s">
         <v>214</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="1">
         <v>776.4</v>
       </c>
       <c r="F25" s="5">
@@ -14573,10 +14566,10 @@
       <c r="C26">
         <v>1998</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="1">
         <v>776.4</v>
       </c>
       <c r="F26" s="5">
@@ -14593,10 +14586,10 @@
       <c r="C27">
         <v>1998</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>216</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="1">
         <v>776.4</v>
       </c>
       <c r="F27" s="5">
@@ -14613,10 +14606,10 @@
       <c r="C28">
         <v>1998</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="1">
         <v>776.4</v>
       </c>
       <c r="F28" s="5">
@@ -14633,10 +14626,10 @@
       <c r="C29">
         <v>1998</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" t="s">
         <v>211</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="1">
         <v>776.4</v>
       </c>
       <c r="F29" s="5">
@@ -14653,10 +14646,10 @@
       <c r="C30">
         <v>1998</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" t="s">
         <v>218</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="1">
         <v>776.4</v>
       </c>
       <c r="F30" s="5">
@@ -14673,10 +14666,10 @@
       <c r="C31">
         <v>1998</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="1">
         <v>776.4</v>
       </c>
       <c r="F31" s="5">
@@ -14693,10 +14686,10 @@
       <c r="C32">
         <v>1998</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="1">
         <v>776.4</v>
       </c>
       <c r="F32" s="5">
@@ -14713,10 +14706,10 @@
       <c r="C33">
         <v>1998</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" t="s">
         <v>220</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="1">
         <v>776.4</v>
       </c>
       <c r="F33" s="5">
@@ -14733,10 +14726,10 @@
       <c r="C34">
         <v>1998</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="1">
         <v>776.4</v>
       </c>
       <c r="F34" s="5">
@@ -14753,10 +14746,10 @@
       <c r="C35">
         <v>1998</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="1">
         <v>776.4</v>
       </c>
       <c r="F35" s="5">
@@ -14773,10 +14766,10 @@
       <c r="C36">
         <v>1998</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="1">
         <v>776.4</v>
       </c>
       <c r="F36" s="5">
@@ -14793,10 +14786,10 @@
       <c r="C37">
         <v>1998</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="1">
         <v>776.4</v>
       </c>
       <c r="F37" s="5">
@@ -14813,10 +14806,10 @@
       <c r="C38">
         <v>1998</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" t="s">
         <v>224</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="1">
         <v>776.4</v>
       </c>
       <c r="F38" s="5">
@@ -14833,10 +14826,10 @@
       <c r="C39">
         <v>1998</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="1">
         <v>776.4</v>
       </c>
       <c r="F39" s="5">
@@ -14853,10 +14846,10 @@
       <c r="C40">
         <v>1998</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" t="s">
         <v>226</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="1">
         <v>776.4</v>
       </c>
       <c r="F40" s="5">
@@ -14873,10 +14866,10 @@
       <c r="C41">
         <v>1998</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="1">
         <v>776.4</v>
       </c>
       <c r="F41" s="5">
@@ -14893,10 +14886,10 @@
       <c r="C42">
         <v>1998</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="1">
         <v>776.4</v>
       </c>
       <c r="F42" s="5">
@@ -14913,10 +14906,10 @@
       <c r="C43">
         <v>1998</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="1">
         <v>776.4</v>
       </c>
       <c r="F43" s="5">
@@ -14933,10 +14926,10 @@
       <c r="C44">
         <v>1999</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="1">
         <v>409.7</v>
       </c>
       <c r="F44" s="7">
@@ -14953,10 +14946,10 @@
       <c r="C45">
         <v>1999</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" t="s">
         <v>213</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="1">
         <v>409.7</v>
       </c>
       <c r="F45" s="5">
@@ -14973,10 +14966,10 @@
       <c r="C46">
         <v>1999</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" t="s">
         <v>214</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="1">
         <v>409.7</v>
       </c>
       <c r="F46" s="5">
@@ -14993,10 +14986,10 @@
       <c r="C47">
         <v>1999</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="1">
         <v>409.7</v>
       </c>
       <c r="F47" s="5">
@@ -15013,10 +15006,10 @@
       <c r="C48">
         <v>1999</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" t="s">
         <v>216</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="1">
         <v>409.7</v>
       </c>
       <c r="F48" s="5">
@@ -15033,10 +15026,10 @@
       <c r="C49">
         <v>1999</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" t="s">
         <v>217</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="1">
         <v>409.7</v>
       </c>
       <c r="F49" s="5">
@@ -15053,10 +15046,10 @@
       <c r="C50">
         <v>1999</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="1">
         <v>409.7</v>
       </c>
       <c r="F50" s="5">
@@ -15073,10 +15066,10 @@
       <c r="C51">
         <v>1999</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" t="s">
         <v>218</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="1">
         <v>409.7</v>
       </c>
       <c r="F51" s="5">
@@ -15093,10 +15086,10 @@
       <c r="C52">
         <v>1999</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" t="s">
         <v>219</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="1">
         <v>409.7</v>
       </c>
       <c r="F52" s="5">
@@ -15113,10 +15106,10 @@
       <c r="C53">
         <v>1999</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" t="s">
         <v>210</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="1">
         <v>409.7</v>
       </c>
       <c r="F53" s="5">
@@ -15133,10 +15126,10 @@
       <c r="C54">
         <v>1999</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="1">
         <v>409.7</v>
       </c>
       <c r="F54" s="5">
@@ -15153,10 +15146,10 @@
       <c r="C55">
         <v>1999</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" t="s">
         <v>221</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="1">
         <v>409.7</v>
       </c>
       <c r="F55" s="5">
@@ -15173,10 +15166,10 @@
       <c r="C56">
         <v>1999</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" t="s">
         <v>222</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="1">
         <v>409.7</v>
       </c>
       <c r="F56" s="5">
@@ -15193,10 +15186,10 @@
       <c r="C57">
         <v>1999</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" t="s">
         <v>223</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="1">
         <v>409.7</v>
       </c>
       <c r="F57" s="5">
@@ -15213,10 +15206,10 @@
       <c r="C58">
         <v>1999</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" t="s">
         <v>209</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="1">
         <v>409.7</v>
       </c>
       <c r="F58" s="5">
@@ -15233,10 +15226,10 @@
       <c r="C59">
         <v>1999</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="1">
         <v>409.7</v>
       </c>
       <c r="F59" s="5">
@@ -15253,10 +15246,10 @@
       <c r="C60">
         <v>1999</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" t="s">
         <v>225</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="1">
         <v>409.7</v>
       </c>
       <c r="F60" s="5">
@@ -15273,10 +15266,10 @@
       <c r="C61">
         <v>1999</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" t="s">
         <v>226</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="1">
         <v>409.7</v>
       </c>
       <c r="F61" s="5">
@@ -15293,10 +15286,10 @@
       <c r="C62">
         <v>1999</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" t="s">
         <v>227</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="1">
         <v>409.7</v>
       </c>
       <c r="F62" s="5">
@@ -15313,10 +15306,10 @@
       <c r="C63">
         <v>1999</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" t="s">
         <v>228</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="1">
         <v>409.7</v>
       </c>
       <c r="F63" s="5">
@@ -15333,10 +15326,10 @@
       <c r="C64">
         <v>1999</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" t="s">
         <v>229</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="1">
         <v>409.7</v>
       </c>
       <c r="F64" s="5">
@@ -15353,10 +15346,10 @@
       <c r="C65">
         <v>2000</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F65" s="7">
@@ -15373,10 +15366,10 @@
       <c r="C66">
         <v>2000</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" t="s">
         <v>213</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F66" s="5">
@@ -15393,10 +15386,10 @@
       <c r="C67">
         <v>2000</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" t="s">
         <v>214</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F67" s="5">
@@ -15413,10 +15406,10 @@
       <c r="C68">
         <v>2000</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" t="s">
         <v>215</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="5">
@@ -15433,10 +15426,10 @@
       <c r="C69">
         <v>2000</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" t="s">
         <v>216</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F69" s="5">
@@ -15453,10 +15446,10 @@
       <c r="C70">
         <v>2000</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" t="s">
         <v>217</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F70" s="5">
@@ -15473,10 +15466,10 @@
       <c r="C71">
         <v>2000</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F71" s="5">
@@ -15493,10 +15486,10 @@
       <c r="C72">
         <v>2000</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" t="s">
         <v>218</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F72" s="5">
@@ -15513,10 +15506,10 @@
       <c r="C73">
         <v>2000</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" t="s">
         <v>219</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F73" s="5">
@@ -15533,10 +15526,10 @@
       <c r="C74">
         <v>2000</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F74" s="5">
@@ -15553,10 +15546,10 @@
       <c r="C75">
         <v>2000</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" t="s">
         <v>220</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="5">
@@ -15573,10 +15566,10 @@
       <c r="C76">
         <v>2000</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F76" s="5">
@@ -15593,10 +15586,10 @@
       <c r="C77">
         <v>2000</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" t="s">
         <v>222</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F77" s="5">
@@ -15613,10 +15606,10 @@
       <c r="C78">
         <v>2000</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" t="s">
         <v>223</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F78" s="5">
@@ -15633,10 +15626,10 @@
       <c r="C79">
         <v>2000</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F79" s="5">
@@ -15653,10 +15646,10 @@
       <c r="C80">
         <v>2000</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" t="s">
         <v>224</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F80" s="5">
@@ -15673,10 +15666,10 @@
       <c r="C81">
         <v>2000</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" t="s">
         <v>225</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F81" s="5">
@@ -15693,10 +15686,10 @@
       <c r="C82">
         <v>2000</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" t="s">
         <v>226</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F82" s="5">
@@ -15713,10 +15706,10 @@
       <c r="C83">
         <v>2000</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" t="s">
         <v>227</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F83" s="5">
@@ -15733,10 +15726,10 @@
       <c r="C84">
         <v>2000</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" t="s">
         <v>228</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F84" s="5">
@@ -15753,10 +15746,10 @@
       <c r="C85">
         <v>2000</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" t="s">
         <v>229</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F85" s="5">
@@ -15773,10 +15766,10 @@
       <c r="C86">
         <v>2001</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" t="s">
         <v>212</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F86" s="6">
@@ -15793,10 +15786,10 @@
       <c r="C87">
         <v>2001</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" t="s">
         <v>213</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F87" s="5">
@@ -15813,10 +15806,10 @@
       <c r="C88">
         <v>2001</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" t="s">
         <v>214</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F88" s="5">
@@ -15833,10 +15826,10 @@
       <c r="C89">
         <v>2001</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" t="s">
         <v>215</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F89" s="5">
@@ -15853,10 +15846,10 @@
       <c r="C90">
         <v>2001</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" t="s">
         <v>216</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F90" s="5">
@@ -15873,10 +15866,10 @@
       <c r="C91">
         <v>2001</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" t="s">
         <v>217</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F91" s="5">
@@ -15893,10 +15886,10 @@
       <c r="C92">
         <v>2001</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" t="s">
         <v>211</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F92" s="5">
@@ -15913,10 +15906,10 @@
       <c r="C93">
         <v>2001</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" t="s">
         <v>218</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F93" s="5">
@@ -15933,10 +15926,10 @@
       <c r="C94">
         <v>2001</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" t="s">
         <v>219</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F94" s="5">
@@ -15953,10 +15946,10 @@
       <c r="C95">
         <v>2001</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" t="s">
         <v>210</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F95" s="5">
@@ -15973,10 +15966,10 @@
       <c r="C96">
         <v>2001</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" t="s">
         <v>220</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F96" s="5">
@@ -15993,10 +15986,10 @@
       <c r="C97">
         <v>2001</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" t="s">
         <v>221</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F97" s="5">
@@ -16013,10 +16006,10 @@
       <c r="C98">
         <v>2001</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" t="s">
         <v>222</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F98" s="5">
@@ -16033,10 +16026,10 @@
       <c r="C99">
         <v>2001</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" t="s">
         <v>223</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F99" s="5">
@@ -16053,10 +16046,10 @@
       <c r="C100">
         <v>2001</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" t="s">
         <v>209</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F100" s="5">
@@ -16073,10 +16066,10 @@
       <c r="C101">
         <v>2001</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" t="s">
         <v>224</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F101" s="5">
@@ -16093,10 +16086,10 @@
       <c r="C102">
         <v>2001</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" t="s">
         <v>225</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F102" s="5">
@@ -16113,10 +16106,10 @@
       <c r="C103">
         <v>2001</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" t="s">
         <v>226</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F103" s="5">
@@ -16133,10 +16126,10 @@
       <c r="C104">
         <v>2001</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" t="s">
         <v>227</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F104" s="5">
@@ -16153,10 +16146,10 @@
       <c r="C105">
         <v>2001</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" t="s">
         <v>228</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F105" s="5">
@@ -16173,10 +16166,10 @@
       <c r="C106">
         <v>2001</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" t="s">
         <v>229</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E106" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F106" s="5">
@@ -16193,7 +16186,7 @@
       <c r="C107">
         <v>2002</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" t="s">
         <v>212</v>
       </c>
       <c r="E107" s="8">
@@ -16213,7 +16206,7 @@
       <c r="C108">
         <v>2002</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" t="s">
         <v>213</v>
       </c>
       <c r="E108" s="8" t="s">
@@ -16233,7 +16226,7 @@
       <c r="C109">
         <v>2002</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" t="s">
         <v>214</v>
       </c>
       <c r="E109" s="8" t="s">
@@ -16253,7 +16246,7 @@
       <c r="C110">
         <v>2002</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" t="s">
         <v>215</v>
       </c>
       <c r="E110" s="8" t="s">
@@ -16273,7 +16266,7 @@
       <c r="C111">
         <v>2002</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" t="s">
         <v>216</v>
       </c>
       <c r="E111" s="8" t="s">
@@ -16293,7 +16286,7 @@
       <c r="C112">
         <v>2002</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" t="s">
         <v>217</v>
       </c>
       <c r="E112" s="8" t="s">
@@ -16313,7 +16306,7 @@
       <c r="C113">
         <v>2002</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" t="s">
         <v>211</v>
       </c>
       <c r="E113" s="8" t="s">
@@ -16333,7 +16326,7 @@
       <c r="C114">
         <v>2002</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" t="s">
         <v>218</v>
       </c>
       <c r="E114" s="8" t="s">
@@ -16353,7 +16346,7 @@
       <c r="C115">
         <v>2002</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" t="s">
         <v>219</v>
       </c>
       <c r="E115" s="8" t="s">
@@ -16373,7 +16366,7 @@
       <c r="C116">
         <v>2002</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" t="s">
         <v>210</v>
       </c>
       <c r="E116" s="8" t="s">
@@ -16393,7 +16386,7 @@
       <c r="C117">
         <v>2002</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" t="s">
         <v>220</v>
       </c>
       <c r="E117" s="8" t="s">
@@ -16413,7 +16406,7 @@
       <c r="C118">
         <v>2002</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" t="s">
         <v>221</v>
       </c>
       <c r="E118" s="8" t="s">
@@ -16433,7 +16426,7 @@
       <c r="C119">
         <v>2002</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" t="s">
         <v>222</v>
       </c>
       <c r="E119" s="8" t="s">
@@ -16453,7 +16446,7 @@
       <c r="C120">
         <v>2002</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" t="s">
         <v>223</v>
       </c>
       <c r="E120" s="8" t="s">
@@ -16473,7 +16466,7 @@
       <c r="C121">
         <v>2002</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" t="s">
         <v>209</v>
       </c>
       <c r="E121" s="8" t="s">
@@ -16493,7 +16486,7 @@
       <c r="C122">
         <v>2002</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" t="s">
         <v>224</v>
       </c>
       <c r="E122" s="8" t="s">
@@ -16513,7 +16506,7 @@
       <c r="C123">
         <v>2002</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" t="s">
         <v>225</v>
       </c>
       <c r="E123" s="8" t="s">
@@ -16533,7 +16526,7 @@
       <c r="C124">
         <v>2002</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" t="s">
         <v>226</v>
       </c>
       <c r="E124" s="8" t="s">
@@ -16553,7 +16546,7 @@
       <c r="C125">
         <v>2002</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" t="s">
         <v>227</v>
       </c>
       <c r="E125" s="8" t="s">
@@ -16573,7 +16566,7 @@
       <c r="C126">
         <v>2002</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" t="s">
         <v>228</v>
       </c>
       <c r="E126" s="8" t="s">
@@ -16593,7 +16586,7 @@
       <c r="C127">
         <v>2002</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" t="s">
         <v>229</v>
       </c>
       <c r="E127" s="8" t="s">
@@ -16613,10 +16606,10 @@
       <c r="C128">
         <v>2003</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" t="s">
         <v>212</v>
       </c>
-      <c r="E128" s="14" t="s">
+      <c r="E128" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F128" s="6">
@@ -16633,10 +16626,10 @@
       <c r="C129">
         <v>2003</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" t="s">
         <v>213</v>
       </c>
-      <c r="E129" s="14" t="s">
+      <c r="E129" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F129" s="5">
@@ -16653,10 +16646,10 @@
       <c r="C130">
         <v>2003</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" t="s">
         <v>214</v>
       </c>
-      <c r="E130" s="14" t="s">
+      <c r="E130" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F130" s="5">
@@ -16673,10 +16666,10 @@
       <c r="C131">
         <v>2003</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" t="s">
         <v>215</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F131" s="5">
@@ -16693,10 +16686,10 @@
       <c r="C132">
         <v>2003</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" t="s">
         <v>216</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F132" s="5">
@@ -16713,10 +16706,10 @@
       <c r="C133">
         <v>2003</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" t="s">
         <v>217</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="E133" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F133" s="5">
@@ -16733,10 +16726,10 @@
       <c r="C134">
         <v>2003</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" t="s">
         <v>211</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F134" s="5">
@@ -16753,10 +16746,10 @@
       <c r="C135">
         <v>2003</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" t="s">
         <v>218</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E135" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F135" s="5">
@@ -16773,10 +16766,10 @@
       <c r="C136">
         <v>2003</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" t="s">
         <v>219</v>
       </c>
-      <c r="E136" s="14" t="s">
+      <c r="E136" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F136" s="5">
@@ -16793,10 +16786,10 @@
       <c r="C137">
         <v>2003</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" t="s">
         <v>210</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F137" s="5">
@@ -16813,10 +16806,10 @@
       <c r="C138">
         <v>2003</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" t="s">
         <v>220</v>
       </c>
-      <c r="E138" s="14" t="s">
+      <c r="E138" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F138" s="5">
@@ -16833,10 +16826,10 @@
       <c r="C139">
         <v>2003</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" t="s">
         <v>221</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F139" s="5">
@@ -16853,10 +16846,10 @@
       <c r="C140">
         <v>2003</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" t="s">
         <v>222</v>
       </c>
-      <c r="E140" s="14" t="s">
+      <c r="E140" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F140" s="5">
@@ -16873,10 +16866,10 @@
       <c r="C141">
         <v>2003</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" t="s">
         <v>223</v>
       </c>
-      <c r="E141" s="14" t="s">
+      <c r="E141" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F141" s="5">
@@ -16893,10 +16886,10 @@
       <c r="C142">
         <v>2003</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" t="s">
         <v>209</v>
       </c>
-      <c r="E142" s="14" t="s">
+      <c r="E142" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F142" s="5">
@@ -16913,10 +16906,10 @@
       <c r="C143">
         <v>2003</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" t="s">
         <v>224</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F143" s="5">
@@ -16933,10 +16926,10 @@
       <c r="C144">
         <v>2003</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" t="s">
         <v>225</v>
       </c>
-      <c r="E144" s="14" t="s">
+      <c r="E144" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F144" s="5">
@@ -16953,10 +16946,10 @@
       <c r="C145">
         <v>2003</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" t="s">
         <v>226</v>
       </c>
-      <c r="E145" s="14" t="s">
+      <c r="E145" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F145" s="5">
@@ -16973,10 +16966,10 @@
       <c r="C146">
         <v>2003</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" t="s">
         <v>227</v>
       </c>
-      <c r="E146" s="14" t="s">
+      <c r="E146" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F146" s="5">
@@ -16993,10 +16986,10 @@
       <c r="C147">
         <v>2003</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" t="s">
         <v>228</v>
       </c>
-      <c r="E147" s="14" t="s">
+      <c r="E147" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F147" s="5">
@@ -17013,10 +17006,10 @@
       <c r="C148">
         <v>2003</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" t="s">
         <v>229</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E148" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F148" s="5">
@@ -17033,10 +17026,10 @@
       <c r="C149">
         <v>2004</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" t="s">
         <v>212</v>
       </c>
-      <c r="E149" s="15" t="s">
+      <c r="E149" s="12" t="s">
         <v>231</v>
       </c>
       <c r="F149" s="6">
@@ -17053,10 +17046,10 @@
       <c r="C150">
         <v>2004</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" t="s">
         <v>213</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="E150" s="12" t="s">
         <v>178</v>
       </c>
       <c r="F150" s="5">
@@ -17073,10 +17066,10 @@
       <c r="C151">
         <v>2004</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" t="s">
         <v>214</v>
       </c>
-      <c r="E151" s="15" t="s">
+      <c r="E151" s="12" t="s">
         <v>179</v>
       </c>
       <c r="F151" s="5">
@@ -17093,10 +17086,10 @@
       <c r="C152">
         <v>2004</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" t="s">
         <v>215</v>
       </c>
-      <c r="E152" s="15" t="s">
+      <c r="E152" s="12" t="s">
         <v>180</v>
       </c>
       <c r="F152" s="5">
@@ -17113,10 +17106,10 @@
       <c r="C153">
         <v>2004</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" t="s">
         <v>216</v>
       </c>
-      <c r="E153" s="15" t="s">
+      <c r="E153" s="12" t="s">
         <v>181</v>
       </c>
       <c r="F153" s="5">
@@ -17133,10 +17126,10 @@
       <c r="C154">
         <v>2004</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" t="s">
         <v>217</v>
       </c>
-      <c r="E154" s="15" t="s">
+      <c r="E154" s="12" t="s">
         <v>182</v>
       </c>
       <c r="F154" s="5">
@@ -17153,10 +17146,10 @@
       <c r="C155">
         <v>2004</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" t="s">
         <v>211</v>
       </c>
-      <c r="E155" s="15" t="s">
+      <c r="E155" s="12" t="s">
         <v>183</v>
       </c>
       <c r="F155" s="5">
@@ -17173,10 +17166,10 @@
       <c r="C156">
         <v>2004</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D156" t="s">
         <v>218</v>
       </c>
-      <c r="E156" s="15" t="s">
+      <c r="E156" s="12" t="s">
         <v>184</v>
       </c>
       <c r="F156" s="5">
@@ -17193,10 +17186,10 @@
       <c r="C157">
         <v>2004</v>
       </c>
-      <c r="D157" s="10" t="s">
+      <c r="D157" t="s">
         <v>219</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="E157" s="12" t="s">
         <v>185</v>
       </c>
       <c r="F157" s="5">
@@ -17213,10 +17206,10 @@
       <c r="C158">
         <v>2004</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D158" t="s">
         <v>210</v>
       </c>
-      <c r="E158" s="15" t="s">
+      <c r="E158" s="12" t="s">
         <v>186</v>
       </c>
       <c r="F158" s="5">
@@ -17233,10 +17226,10 @@
       <c r="C159">
         <v>2004</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" t="s">
         <v>220</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E159" s="12" t="s">
         <v>187</v>
       </c>
       <c r="F159" s="5">
@@ -17253,10 +17246,10 @@
       <c r="C160">
         <v>2004</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" t="s">
         <v>221</v>
       </c>
-      <c r="E160" s="15" t="s">
+      <c r="E160" s="12" t="s">
         <v>188</v>
       </c>
       <c r="F160" s="5">
@@ -17273,10 +17266,10 @@
       <c r="C161">
         <v>2004</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" t="s">
         <v>222</v>
       </c>
-      <c r="E161" s="15" t="s">
+      <c r="E161" s="12" t="s">
         <v>189</v>
       </c>
       <c r="F161" s="5">
@@ -17293,10 +17286,10 @@
       <c r="C162">
         <v>2004</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" t="s">
         <v>223</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E162" s="12" t="s">
         <v>190</v>
       </c>
       <c r="F162" s="5">
@@ -17313,10 +17306,10 @@
       <c r="C163">
         <v>2004</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" t="s">
         <v>209</v>
       </c>
-      <c r="E163" s="15" t="s">
+      <c r="E163" s="12" t="s">
         <v>191</v>
       </c>
       <c r="F163" s="5">
@@ -17333,10 +17326,10 @@
       <c r="C164">
         <v>2004</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" t="s">
         <v>224</v>
       </c>
-      <c r="E164" s="15" t="s">
+      <c r="E164" s="12" t="s">
         <v>192</v>
       </c>
       <c r="F164" s="5">
@@ -17353,10 +17346,10 @@
       <c r="C165">
         <v>2004</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D165" t="s">
         <v>225</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="E165" s="12" t="s">
         <v>193</v>
       </c>
       <c r="F165" s="5">
@@ -17373,10 +17366,10 @@
       <c r="C166">
         <v>2004</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D166" t="s">
         <v>226</v>
       </c>
-      <c r="E166" s="15" t="s">
+      <c r="E166" s="12" t="s">
         <v>194</v>
       </c>
       <c r="F166" s="5">
@@ -17393,10 +17386,10 @@
       <c r="C167">
         <v>2004</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" t="s">
         <v>227</v>
       </c>
-      <c r="E167" s="15" t="s">
+      <c r="E167" s="12" t="s">
         <v>195</v>
       </c>
       <c r="F167" s="5">
@@ -17413,10 +17406,10 @@
       <c r="C168">
         <v>2004</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D168" t="s">
         <v>228</v>
       </c>
-      <c r="E168" s="15" t="s">
+      <c r="E168" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F168" s="5">
@@ -17433,10 +17426,10 @@
       <c r="C169">
         <v>2004</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" t="s">
         <v>229</v>
       </c>
-      <c r="E169" s="15" t="s">
+      <c r="E169" s="12" t="s">
         <v>197</v>
       </c>
       <c r="F169" s="5">
@@ -17453,10 +17446,10 @@
       <c r="C170">
         <v>2005</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="D170" t="s">
         <v>212</v>
       </c>
-      <c r="E170" s="16">
+      <c r="E170" s="4">
         <v>551.5</v>
       </c>
       <c r="F170" s="6">
@@ -17473,10 +17466,10 @@
       <c r="C171">
         <v>2005</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" t="s">
         <v>213</v>
       </c>
-      <c r="E171" s="16">
+      <c r="E171" s="4">
         <v>551.5</v>
       </c>
       <c r="F171" s="5">
@@ -17493,10 +17486,10 @@
       <c r="C172">
         <v>2005</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" t="s">
         <v>214</v>
       </c>
-      <c r="E172" s="16">
+      <c r="E172" s="4">
         <v>551.5</v>
       </c>
       <c r="F172" s="5">
@@ -17513,10 +17506,10 @@
       <c r="C173">
         <v>2005</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" t="s">
         <v>215</v>
       </c>
-      <c r="E173" s="16">
+      <c r="E173" s="4">
         <v>551.5</v>
       </c>
       <c r="F173" s="5">
@@ -17533,10 +17526,10 @@
       <c r="C174">
         <v>2005</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" t="s">
         <v>216</v>
       </c>
-      <c r="E174" s="16">
+      <c r="E174" s="4">
         <v>551.5</v>
       </c>
       <c r="F174" s="5">
@@ -17553,10 +17546,10 @@
       <c r="C175">
         <v>2005</v>
       </c>
-      <c r="D175" s="10" t="s">
+      <c r="D175" t="s">
         <v>217</v>
       </c>
-      <c r="E175" s="16">
+      <c r="E175" s="4">
         <v>551.5</v>
       </c>
       <c r="F175" s="5">
@@ -17573,10 +17566,10 @@
       <c r="C176">
         <v>2005</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="D176" t="s">
         <v>211</v>
       </c>
-      <c r="E176" s="16">
+      <c r="E176" s="4">
         <v>551.5</v>
       </c>
       <c r="F176" s="5">
@@ -17593,10 +17586,10 @@
       <c r="C177">
         <v>2005</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="D177" t="s">
         <v>218</v>
       </c>
-      <c r="E177" s="16">
+      <c r="E177" s="4">
         <v>551.5</v>
       </c>
       <c r="F177" s="5">
@@ -17613,10 +17606,10 @@
       <c r="C178">
         <v>2005</v>
       </c>
-      <c r="D178" s="10" t="s">
+      <c r="D178" t="s">
         <v>219</v>
       </c>
-      <c r="E178" s="16">
+      <c r="E178" s="4">
         <v>551.5</v>
       </c>
       <c r="F178" s="5">
@@ -17633,10 +17626,10 @@
       <c r="C179">
         <v>2005</v>
       </c>
-      <c r="D179" s="10" t="s">
+      <c r="D179" t="s">
         <v>210</v>
       </c>
-      <c r="E179" s="16">
+      <c r="E179" s="4">
         <v>551.5</v>
       </c>
       <c r="F179" s="5">
@@ -17653,10 +17646,10 @@
       <c r="C180">
         <v>2005</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="D180" t="s">
         <v>220</v>
       </c>
-      <c r="E180" s="16">
+      <c r="E180" s="4">
         <v>551.5</v>
       </c>
       <c r="F180" s="5">
@@ -17673,10 +17666,10 @@
       <c r="C181">
         <v>2005</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D181" t="s">
         <v>221</v>
       </c>
-      <c r="E181" s="16">
+      <c r="E181" s="4">
         <v>551.5</v>
       </c>
       <c r="F181" s="5">
@@ -17693,10 +17686,10 @@
       <c r="C182">
         <v>2005</v>
       </c>
-      <c r="D182" s="10" t="s">
+      <c r="D182" t="s">
         <v>222</v>
       </c>
-      <c r="E182" s="16">
+      <c r="E182" s="4">
         <v>551.5</v>
       </c>
       <c r="F182" s="5">
@@ -17713,10 +17706,10 @@
       <c r="C183">
         <v>2005</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D183" t="s">
         <v>223</v>
       </c>
-      <c r="E183" s="16">
+      <c r="E183" s="4">
         <v>551.5</v>
       </c>
       <c r="F183" s="5">
@@ -17733,10 +17726,10 @@
       <c r="C184">
         <v>2005</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" t="s">
         <v>209</v>
       </c>
-      <c r="E184" s="16">
+      <c r="E184" s="4">
         <v>551.5</v>
       </c>
       <c r="F184" s="5">
@@ -17753,10 +17746,10 @@
       <c r="C185">
         <v>2005</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" t="s">
         <v>224</v>
       </c>
-      <c r="E185" s="16">
+      <c r="E185" s="4">
         <v>551.5</v>
       </c>
       <c r="F185" s="5">
@@ -17773,10 +17766,10 @@
       <c r="C186">
         <v>2005</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="D186" t="s">
         <v>225</v>
       </c>
-      <c r="E186" s="16">
+      <c r="E186" s="4">
         <v>551.5</v>
       </c>
       <c r="F186" s="5">
@@ -17793,10 +17786,10 @@
       <c r="C187">
         <v>2005</v>
       </c>
-      <c r="D187" s="10" t="s">
+      <c r="D187" t="s">
         <v>226</v>
       </c>
-      <c r="E187" s="16">
+      <c r="E187" s="4">
         <v>551.5</v>
       </c>
       <c r="F187" s="5">
@@ -17813,10 +17806,10 @@
       <c r="C188">
         <v>2005</v>
       </c>
-      <c r="D188" s="10" t="s">
+      <c r="D188" t="s">
         <v>227</v>
       </c>
-      <c r="E188" s="16">
+      <c r="E188" s="4">
         <v>551.5</v>
       </c>
       <c r="F188" s="5">
@@ -17833,10 +17826,10 @@
       <c r="C189">
         <v>2005</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="D189" t="s">
         <v>228</v>
       </c>
-      <c r="E189" s="16">
+      <c r="E189" s="4">
         <v>551.5</v>
       </c>
       <c r="F189" s="5">
@@ -17853,10 +17846,10 @@
       <c r="C190">
         <v>2005</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" t="s">
         <v>229</v>
       </c>
-      <c r="E190" s="16">
+      <c r="E190" s="4">
         <v>551.5</v>
       </c>
       <c r="F190" s="5">
@@ -17873,10 +17866,10 @@
       <c r="C191">
         <v>2006</v>
       </c>
-      <c r="D191" s="10" t="s">
+      <c r="D191" t="s">
         <v>212</v>
       </c>
-      <c r="E191" s="14">
+      <c r="E191" s="2">
         <v>736.9</v>
       </c>
       <c r="F191" s="6">
@@ -17893,10 +17886,10 @@
       <c r="C192">
         <v>2006</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D192" t="s">
         <v>213</v>
       </c>
-      <c r="E192" s="14">
+      <c r="E192" s="2">
         <v>736.9</v>
       </c>
       <c r="F192" s="5">
@@ -17913,10 +17906,10 @@
       <c r="C193">
         <v>2006</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" t="s">
         <v>214</v>
       </c>
-      <c r="E193" s="14">
+      <c r="E193" s="2">
         <v>736.9</v>
       </c>
       <c r="F193" s="5">
@@ -17933,10 +17926,10 @@
       <c r="C194">
         <v>2006</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" t="s">
         <v>215</v>
       </c>
-      <c r="E194" s="14">
+      <c r="E194" s="2">
         <v>736.9</v>
       </c>
       <c r="F194" s="5">
@@ -17953,10 +17946,10 @@
       <c r="C195">
         <v>2006</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" t="s">
         <v>216</v>
       </c>
-      <c r="E195" s="14">
+      <c r="E195" s="2">
         <v>736.9</v>
       </c>
       <c r="F195" s="5">
@@ -17973,10 +17966,10 @@
       <c r="C196">
         <v>2006</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D196" t="s">
         <v>217</v>
       </c>
-      <c r="E196" s="14">
+      <c r="E196" s="2">
         <v>736.9</v>
       </c>
       <c r="F196" s="5">
@@ -17993,10 +17986,10 @@
       <c r="C197">
         <v>2006</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="D197" t="s">
         <v>211</v>
       </c>
-      <c r="E197" s="14">
+      <c r="E197" s="2">
         <v>736.9</v>
       </c>
       <c r="F197" s="5">
@@ -18013,10 +18006,10 @@
       <c r="C198">
         <v>2006</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D198" t="s">
         <v>218</v>
       </c>
-      <c r="E198" s="14">
+      <c r="E198" s="2">
         <v>736.9</v>
       </c>
       <c r="F198" s="5">
@@ -18033,10 +18026,10 @@
       <c r="C199">
         <v>2006</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="D199" t="s">
         <v>219</v>
       </c>
-      <c r="E199" s="14">
+      <c r="E199" s="2">
         <v>736.9</v>
       </c>
       <c r="F199" s="5">
@@ -18053,10 +18046,10 @@
       <c r="C200">
         <v>2006</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" t="s">
         <v>210</v>
       </c>
-      <c r="E200" s="14">
+      <c r="E200" s="2">
         <v>736.9</v>
       </c>
       <c r="F200" s="5">
@@ -18073,10 +18066,10 @@
       <c r="C201">
         <v>2006</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D201" t="s">
         <v>220</v>
       </c>
-      <c r="E201" s="14">
+      <c r="E201" s="2">
         <v>736.9</v>
       </c>
       <c r="F201" s="5">
@@ -18093,10 +18086,10 @@
       <c r="C202">
         <v>2006</v>
       </c>
-      <c r="D202" s="10" t="s">
+      <c r="D202" t="s">
         <v>221</v>
       </c>
-      <c r="E202" s="14">
+      <c r="E202" s="2">
         <v>736.9</v>
       </c>
       <c r="F202" s="5">
@@ -18113,10 +18106,10 @@
       <c r="C203">
         <v>2006</v>
       </c>
-      <c r="D203" s="10" t="s">
+      <c r="D203" t="s">
         <v>222</v>
       </c>
-      <c r="E203" s="14">
+      <c r="E203" s="2">
         <v>736.9</v>
       </c>
       <c r="F203" s="5">
@@ -18133,10 +18126,10 @@
       <c r="C204">
         <v>2006</v>
       </c>
-      <c r="D204" s="10" t="s">
+      <c r="D204" t="s">
         <v>223</v>
       </c>
-      <c r="E204" s="14">
+      <c r="E204" s="2">
         <v>736.9</v>
       </c>
       <c r="F204" s="5">
@@ -18153,10 +18146,10 @@
       <c r="C205">
         <v>2006</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D205" t="s">
         <v>209</v>
       </c>
-      <c r="E205" s="14">
+      <c r="E205" s="2">
         <v>736.9</v>
       </c>
       <c r="F205" s="5">
@@ -18173,10 +18166,10 @@
       <c r="C206">
         <v>2006</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="D206" t="s">
         <v>224</v>
       </c>
-      <c r="E206" s="14">
+      <c r="E206" s="2">
         <v>736.9</v>
       </c>
       <c r="F206" s="5">
@@ -18193,10 +18186,10 @@
       <c r="C207">
         <v>2006</v>
       </c>
-      <c r="D207" s="10" t="s">
+      <c r="D207" t="s">
         <v>225</v>
       </c>
-      <c r="E207" s="14">
+      <c r="E207" s="2">
         <v>736.9</v>
       </c>
       <c r="F207" s="5">
@@ -18213,10 +18206,10 @@
       <c r="C208">
         <v>2006</v>
       </c>
-      <c r="D208" s="10" t="s">
+      <c r="D208" t="s">
         <v>226</v>
       </c>
-      <c r="E208" s="14">
+      <c r="E208" s="2">
         <v>736.9</v>
       </c>
       <c r="F208" s="5">
@@ -18233,10 +18226,10 @@
       <c r="C209">
         <v>2006</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="D209" t="s">
         <v>227</v>
       </c>
-      <c r="E209" s="14">
+      <c r="E209" s="2">
         <v>736.9</v>
       </c>
       <c r="F209" s="5">
@@ -18253,10 +18246,10 @@
       <c r="C210">
         <v>2006</v>
       </c>
-      <c r="D210" s="10" t="s">
+      <c r="D210" t="s">
         <v>228</v>
       </c>
-      <c r="E210" s="14">
+      <c r="E210" s="2">
         <v>736.9</v>
       </c>
       <c r="F210" s="5">
@@ -18273,10 +18266,10 @@
       <c r="C211">
         <v>2006</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" t="s">
         <v>229</v>
       </c>
-      <c r="E211" s="14">
+      <c r="E211" s="2">
         <v>736.9</v>
       </c>
       <c r="F211" s="5">
@@ -18293,7 +18286,7 @@
       <c r="C212">
         <v>2007</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="D212" t="s">
         <v>212</v>
       </c>
       <c r="E212" s="8">
@@ -18313,7 +18306,7 @@
       <c r="C213">
         <v>2007</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="D213" t="s">
         <v>213</v>
       </c>
       <c r="E213" s="8">
@@ -18333,7 +18326,7 @@
       <c r="C214">
         <v>2007</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D214" t="s">
         <v>214</v>
       </c>
       <c r="E214" s="8">
@@ -18353,7 +18346,7 @@
       <c r="C215">
         <v>2007</v>
       </c>
-      <c r="D215" s="10" t="s">
+      <c r="D215" t="s">
         <v>215</v>
       </c>
       <c r="E215" s="8">
@@ -18373,7 +18366,7 @@
       <c r="C216">
         <v>2007</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D216" t="s">
         <v>216</v>
       </c>
       <c r="E216" s="8">
@@ -18393,7 +18386,7 @@
       <c r="C217">
         <v>2007</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D217" t="s">
         <v>217</v>
       </c>
       <c r="E217" s="8">
@@ -18413,7 +18406,7 @@
       <c r="C218">
         <v>2007</v>
       </c>
-      <c r="D218" s="10" t="s">
+      <c r="D218" t="s">
         <v>211</v>
       </c>
       <c r="E218" s="8">
@@ -18433,7 +18426,7 @@
       <c r="C219">
         <v>2007</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="D219" t="s">
         <v>218</v>
       </c>
       <c r="E219" s="8">
@@ -18453,7 +18446,7 @@
       <c r="C220">
         <v>2007</v>
       </c>
-      <c r="D220" s="10" t="s">
+      <c r="D220" t="s">
         <v>219</v>
       </c>
       <c r="E220" s="8">
@@ -18473,7 +18466,7 @@
       <c r="C221">
         <v>2007</v>
       </c>
-      <c r="D221" s="10" t="s">
+      <c r="D221" t="s">
         <v>210</v>
       </c>
       <c r="E221" s="8">
@@ -18493,7 +18486,7 @@
       <c r="C222">
         <v>2007</v>
       </c>
-      <c r="D222" s="10" t="s">
+      <c r="D222" t="s">
         <v>220</v>
       </c>
       <c r="E222" s="8">
@@ -18513,7 +18506,7 @@
       <c r="C223">
         <v>2007</v>
       </c>
-      <c r="D223" s="10" t="s">
+      <c r="D223" t="s">
         <v>221</v>
       </c>
       <c r="E223" s="8">
@@ -18533,7 +18526,7 @@
       <c r="C224">
         <v>2007</v>
       </c>
-      <c r="D224" s="10" t="s">
+      <c r="D224" t="s">
         <v>222</v>
       </c>
       <c r="E224" s="8">
@@ -18553,7 +18546,7 @@
       <c r="C225">
         <v>2007</v>
       </c>
-      <c r="D225" s="10" t="s">
+      <c r="D225" t="s">
         <v>223</v>
       </c>
       <c r="E225" s="8">
@@ -18573,7 +18566,7 @@
       <c r="C226">
         <v>2007</v>
       </c>
-      <c r="D226" s="10" t="s">
+      <c r="D226" t="s">
         <v>209</v>
       </c>
       <c r="E226" s="8">
@@ -18593,7 +18586,7 @@
       <c r="C227">
         <v>2007</v>
       </c>
-      <c r="D227" s="10" t="s">
+      <c r="D227" t="s">
         <v>224</v>
       </c>
       <c r="E227" s="8">
@@ -18613,7 +18606,7 @@
       <c r="C228">
         <v>2007</v>
       </c>
-      <c r="D228" s="10" t="s">
+      <c r="D228" t="s">
         <v>225</v>
       </c>
       <c r="E228" s="8">
@@ -18633,7 +18626,7 @@
       <c r="C229">
         <v>2007</v>
       </c>
-      <c r="D229" s="10" t="s">
+      <c r="D229" t="s">
         <v>226</v>
       </c>
       <c r="E229" s="8">
@@ -18653,7 +18646,7 @@
       <c r="C230">
         <v>2007</v>
       </c>
-      <c r="D230" s="10" t="s">
+      <c r="D230" t="s">
         <v>227</v>
       </c>
       <c r="E230" s="8">
@@ -18673,7 +18666,7 @@
       <c r="C231">
         <v>2007</v>
       </c>
-      <c r="D231" s="10" t="s">
+      <c r="D231" t="s">
         <v>228</v>
       </c>
       <c r="E231" s="8">
@@ -18693,7 +18686,7 @@
       <c r="C232">
         <v>2007</v>
       </c>
-      <c r="D232" s="10" t="s">
+      <c r="D232" t="s">
         <v>229</v>
       </c>
       <c r="E232" s="8">
@@ -18713,10 +18706,10 @@
       <c r="C233">
         <v>2008</v>
       </c>
-      <c r="D233" s="10" t="s">
+      <c r="D233" t="s">
         <v>212</v>
       </c>
-      <c r="E233" s="14">
+      <c r="E233" s="2">
         <v>577.4</v>
       </c>
       <c r="F233" s="6">
@@ -18733,10 +18726,10 @@
       <c r="C234">
         <v>2008</v>
       </c>
-      <c r="D234" s="10" t="s">
+      <c r="D234" t="s">
         <v>213</v>
       </c>
-      <c r="E234" s="14">
+      <c r="E234" s="2">
         <v>577.4</v>
       </c>
       <c r="F234" s="5">
@@ -18753,10 +18746,10 @@
       <c r="C235">
         <v>2008</v>
       </c>
-      <c r="D235" s="10" t="s">
+      <c r="D235" t="s">
         <v>214</v>
       </c>
-      <c r="E235" s="14">
+      <c r="E235" s="2">
         <v>577.4</v>
       </c>
       <c r="F235" s="5">
@@ -18773,10 +18766,10 @@
       <c r="C236">
         <v>2008</v>
       </c>
-      <c r="D236" s="10" t="s">
+      <c r="D236" t="s">
         <v>215</v>
       </c>
-      <c r="E236" s="14">
+      <c r="E236" s="2">
         <v>577.4</v>
       </c>
       <c r="F236" s="5">
@@ -18793,10 +18786,10 @@
       <c r="C237">
         <v>2008</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="D237" t="s">
         <v>216</v>
       </c>
-      <c r="E237" s="14">
+      <c r="E237" s="2">
         <v>577.4</v>
       </c>
       <c r="F237" s="5">
@@ -18813,10 +18806,10 @@
       <c r="C238">
         <v>2008</v>
       </c>
-      <c r="D238" s="10" t="s">
+      <c r="D238" t="s">
         <v>217</v>
       </c>
-      <c r="E238" s="14">
+      <c r="E238" s="2">
         <v>577.4</v>
       </c>
       <c r="F238" s="5">
@@ -18833,10 +18826,10 @@
       <c r="C239">
         <v>2008</v>
       </c>
-      <c r="D239" s="10" t="s">
+      <c r="D239" t="s">
         <v>211</v>
       </c>
-      <c r="E239" s="14">
+      <c r="E239" s="2">
         <v>577.4</v>
       </c>
       <c r="F239" s="5">
@@ -18853,10 +18846,10 @@
       <c r="C240">
         <v>2008</v>
       </c>
-      <c r="D240" s="10" t="s">
+      <c r="D240" t="s">
         <v>218</v>
       </c>
-      <c r="E240" s="14">
+      <c r="E240" s="2">
         <v>577.4</v>
       </c>
       <c r="F240" s="5">
@@ -18873,10 +18866,10 @@
       <c r="C241">
         <v>2008</v>
       </c>
-      <c r="D241" s="10" t="s">
+      <c r="D241" t="s">
         <v>219</v>
       </c>
-      <c r="E241" s="14">
+      <c r="E241" s="2">
         <v>577.4</v>
       </c>
       <c r="F241" s="5">
@@ -18893,10 +18886,10 @@
       <c r="C242">
         <v>2008</v>
       </c>
-      <c r="D242" s="10" t="s">
+      <c r="D242" t="s">
         <v>210</v>
       </c>
-      <c r="E242" s="14">
+      <c r="E242" s="2">
         <v>577.4</v>
       </c>
       <c r="F242" s="5">
@@ -18913,10 +18906,10 @@
       <c r="C243">
         <v>2008</v>
       </c>
-      <c r="D243" s="10" t="s">
+      <c r="D243" t="s">
         <v>220</v>
       </c>
-      <c r="E243" s="14">
+      <c r="E243" s="2">
         <v>577.4</v>
       </c>
       <c r="F243" s="5">
@@ -18933,10 +18926,10 @@
       <c r="C244">
         <v>2008</v>
       </c>
-      <c r="D244" s="10" t="s">
+      <c r="D244" t="s">
         <v>221</v>
       </c>
-      <c r="E244" s="14">
+      <c r="E244" s="2">
         <v>577.4</v>
       </c>
       <c r="F244" s="5">
@@ -18953,10 +18946,10 @@
       <c r="C245">
         <v>2008</v>
       </c>
-      <c r="D245" s="10" t="s">
+      <c r="D245" t="s">
         <v>222</v>
       </c>
-      <c r="E245" s="14">
+      <c r="E245" s="2">
         <v>577.4</v>
       </c>
       <c r="F245" s="5">
@@ -18973,10 +18966,10 @@
       <c r="C246">
         <v>2008</v>
       </c>
-      <c r="D246" s="10" t="s">
+      <c r="D246" t="s">
         <v>223</v>
       </c>
-      <c r="E246" s="14">
+      <c r="E246" s="2">
         <v>577.4</v>
       </c>
       <c r="F246" s="5">
@@ -18993,10 +18986,10 @@
       <c r="C247">
         <v>2008</v>
       </c>
-      <c r="D247" s="10" t="s">
+      <c r="D247" t="s">
         <v>209</v>
       </c>
-      <c r="E247" s="14">
+      <c r="E247" s="2">
         <v>577.4</v>
       </c>
       <c r="F247" s="5">
@@ -19013,10 +19006,10 @@
       <c r="C248">
         <v>2008</v>
       </c>
-      <c r="D248" s="10" t="s">
+      <c r="D248" t="s">
         <v>224</v>
       </c>
-      <c r="E248" s="14">
+      <c r="E248" s="2">
         <v>577.4</v>
       </c>
       <c r="F248" s="5">
@@ -19033,10 +19026,10 @@
       <c r="C249">
         <v>2008</v>
       </c>
-      <c r="D249" s="10" t="s">
+      <c r="D249" t="s">
         <v>225</v>
       </c>
-      <c r="E249" s="14">
+      <c r="E249" s="2">
         <v>577.4</v>
       </c>
       <c r="F249" s="5">
@@ -19053,10 +19046,10 @@
       <c r="C250">
         <v>2008</v>
       </c>
-      <c r="D250" s="10" t="s">
+      <c r="D250" t="s">
         <v>226</v>
       </c>
-      <c r="E250" s="14">
+      <c r="E250" s="2">
         <v>577.4</v>
       </c>
       <c r="F250" s="5">
@@ -19073,10 +19066,10 @@
       <c r="C251">
         <v>2008</v>
       </c>
-      <c r="D251" s="10" t="s">
+      <c r="D251" t="s">
         <v>227</v>
       </c>
-      <c r="E251" s="14">
+      <c r="E251" s="2">
         <v>577.4</v>
       </c>
       <c r="F251" s="5">
@@ -19093,10 +19086,10 @@
       <c r="C252">
         <v>2008</v>
       </c>
-      <c r="D252" s="10" t="s">
+      <c r="D252" t="s">
         <v>228</v>
       </c>
-      <c r="E252" s="14">
+      <c r="E252" s="2">
         <v>577.4</v>
       </c>
       <c r="F252" s="5">
@@ -19113,10 +19106,10 @@
       <c r="C253">
         <v>2008</v>
       </c>
-      <c r="D253" s="10" t="s">
+      <c r="D253" t="s">
         <v>229</v>
       </c>
-      <c r="E253" s="14">
+      <c r="E253" s="2">
         <v>577.4</v>
       </c>
       <c r="F253" s="5">
@@ -19133,10 +19126,10 @@
       <c r="C254">
         <v>2009</v>
       </c>
-      <c r="D254" s="10" t="s">
+      <c r="D254" t="s">
         <v>212</v>
       </c>
-      <c r="E254" s="14">
+      <c r="E254" s="2">
         <v>510.3</v>
       </c>
       <c r="F254" s="6">
@@ -19153,10 +19146,10 @@
       <c r="C255">
         <v>2009</v>
       </c>
-      <c r="D255" s="10" t="s">
+      <c r="D255" t="s">
         <v>213</v>
       </c>
-      <c r="E255" s="14">
+      <c r="E255" s="2">
         <v>510.3</v>
       </c>
       <c r="F255" s="5">
@@ -19173,10 +19166,10 @@
       <c r="C256">
         <v>2009</v>
       </c>
-      <c r="D256" s="10" t="s">
+      <c r="D256" t="s">
         <v>214</v>
       </c>
-      <c r="E256" s="14">
+      <c r="E256" s="2">
         <v>510.3</v>
       </c>
       <c r="F256" s="5">
@@ -19193,10 +19186,10 @@
       <c r="C257">
         <v>2009</v>
       </c>
-      <c r="D257" s="10" t="s">
+      <c r="D257" t="s">
         <v>215</v>
       </c>
-      <c r="E257" s="14">
+      <c r="E257" s="2">
         <v>510.3</v>
       </c>
       <c r="F257" s="5">
@@ -19213,10 +19206,10 @@
       <c r="C258">
         <v>2009</v>
       </c>
-      <c r="D258" s="10" t="s">
+      <c r="D258" t="s">
         <v>216</v>
       </c>
-      <c r="E258" s="14">
+      <c r="E258" s="2">
         <v>510.3</v>
       </c>
       <c r="F258" s="5">
@@ -19233,10 +19226,10 @@
       <c r="C259">
         <v>2009</v>
       </c>
-      <c r="D259" s="10" t="s">
+      <c r="D259" t="s">
         <v>217</v>
       </c>
-      <c r="E259" s="14">
+      <c r="E259" s="2">
         <v>510.3</v>
       </c>
       <c r="F259" s="5">
@@ -19253,10 +19246,10 @@
       <c r="C260">
         <v>2009</v>
       </c>
-      <c r="D260" s="10" t="s">
+      <c r="D260" t="s">
         <v>211</v>
       </c>
-      <c r="E260" s="14">
+      <c r="E260" s="2">
         <v>510.3</v>
       </c>
       <c r="F260" s="5">
@@ -19273,10 +19266,10 @@
       <c r="C261">
         <v>2009</v>
       </c>
-      <c r="D261" s="10" t="s">
+      <c r="D261" t="s">
         <v>218</v>
       </c>
-      <c r="E261" s="14">
+      <c r="E261" s="2">
         <v>510.3</v>
       </c>
       <c r="F261" s="5">
@@ -19293,10 +19286,10 @@
       <c r="C262">
         <v>2009</v>
       </c>
-      <c r="D262" s="10" t="s">
+      <c r="D262" t="s">
         <v>219</v>
       </c>
-      <c r="E262" s="14">
+      <c r="E262" s="2">
         <v>510.3</v>
       </c>
       <c r="F262" s="5">
@@ -19313,10 +19306,10 @@
       <c r="C263">
         <v>2009</v>
       </c>
-      <c r="D263" s="10" t="s">
+      <c r="D263" t="s">
         <v>210</v>
       </c>
-      <c r="E263" s="14">
+      <c r="E263" s="2">
         <v>510.3</v>
       </c>
       <c r="F263" s="5">
@@ -19333,10 +19326,10 @@
       <c r="C264">
         <v>2009</v>
       </c>
-      <c r="D264" s="10" t="s">
+      <c r="D264" t="s">
         <v>220</v>
       </c>
-      <c r="E264" s="14">
+      <c r="E264" s="2">
         <v>510.3</v>
       </c>
       <c r="F264" s="5">
@@ -19353,10 +19346,10 @@
       <c r="C265">
         <v>2009</v>
       </c>
-      <c r="D265" s="10" t="s">
+      <c r="D265" t="s">
         <v>221</v>
       </c>
-      <c r="E265" s="14">
+      <c r="E265" s="2">
         <v>510.3</v>
       </c>
       <c r="F265" s="5">
@@ -19373,10 +19366,10 @@
       <c r="C266">
         <v>2009</v>
       </c>
-      <c r="D266" s="10" t="s">
+      <c r="D266" t="s">
         <v>222</v>
       </c>
-      <c r="E266" s="14">
+      <c r="E266" s="2">
         <v>510.3</v>
       </c>
       <c r="F266" s="5">
@@ -19393,10 +19386,10 @@
       <c r="C267">
         <v>2009</v>
       </c>
-      <c r="D267" s="10" t="s">
+      <c r="D267" t="s">
         <v>223</v>
       </c>
-      <c r="E267" s="14">
+      <c r="E267" s="2">
         <v>510.3</v>
       </c>
       <c r="F267" s="5">
@@ -19413,10 +19406,10 @@
       <c r="C268">
         <v>2009</v>
       </c>
-      <c r="D268" s="10" t="s">
+      <c r="D268" t="s">
         <v>209</v>
       </c>
-      <c r="E268" s="14">
+      <c r="E268" s="2">
         <v>510.3</v>
       </c>
       <c r="F268" s="5">
@@ -19433,10 +19426,10 @@
       <c r="C269">
         <v>2009</v>
       </c>
-      <c r="D269" s="10" t="s">
+      <c r="D269" t="s">
         <v>224</v>
       </c>
-      <c r="E269" s="14">
+      <c r="E269" s="2">
         <v>510.3</v>
       </c>
       <c r="F269" s="5">
@@ -19453,10 +19446,10 @@
       <c r="C270">
         <v>2009</v>
       </c>
-      <c r="D270" s="10" t="s">
+      <c r="D270" t="s">
         <v>225</v>
       </c>
-      <c r="E270" s="14">
+      <c r="E270" s="2">
         <v>510.3</v>
       </c>
       <c r="F270" s="5">
@@ -19473,10 +19466,10 @@
       <c r="C271">
         <v>2009</v>
       </c>
-      <c r="D271" s="10" t="s">
+      <c r="D271" t="s">
         <v>226</v>
       </c>
-      <c r="E271" s="14">
+      <c r="E271" s="2">
         <v>510.3</v>
       </c>
       <c r="F271" s="5">
@@ -19493,10 +19486,10 @@
       <c r="C272">
         <v>2009</v>
       </c>
-      <c r="D272" s="10" t="s">
+      <c r="D272" t="s">
         <v>227</v>
       </c>
-      <c r="E272" s="14">
+      <c r="E272" s="2">
         <v>510.3</v>
       </c>
       <c r="F272" s="5">
@@ -19513,10 +19506,10 @@
       <c r="C273">
         <v>2009</v>
       </c>
-      <c r="D273" s="10" t="s">
+      <c r="D273" t="s">
         <v>228</v>
       </c>
-      <c r="E273" s="14">
+      <c r="E273" s="2">
         <v>510.3</v>
       </c>
       <c r="F273" s="5">
@@ -19533,10 +19526,10 @@
       <c r="C274">
         <v>2009</v>
       </c>
-      <c r="D274" s="10" t="s">
+      <c r="D274" t="s">
         <v>229</v>
       </c>
-      <c r="E274" s="14">
+      <c r="E274" s="2">
         <v>510.3</v>
       </c>
       <c r="F274" s="5">
@@ -19553,10 +19546,10 @@
       <c r="C275">
         <v>2010</v>
       </c>
-      <c r="D275" s="10" t="s">
+      <c r="D275" t="s">
         <v>212</v>
       </c>
-      <c r="E275" s="14">
+      <c r="E275" s="2">
         <v>771.3</v>
       </c>
       <c r="F275" s="6">
@@ -19573,10 +19566,10 @@
       <c r="C276">
         <v>2010</v>
       </c>
-      <c r="D276" s="10" t="s">
+      <c r="D276" t="s">
         <v>213</v>
       </c>
-      <c r="E276" s="14">
+      <c r="E276" s="2">
         <v>771.3</v>
       </c>
       <c r="F276" s="5">
@@ -19593,10 +19586,10 @@
       <c r="C277">
         <v>2010</v>
       </c>
-      <c r="D277" s="10" t="s">
+      <c r="D277" t="s">
         <v>214</v>
       </c>
-      <c r="E277" s="14">
+      <c r="E277" s="2">
         <v>771.3</v>
       </c>
       <c r="F277" s="5">
@@ -19613,10 +19606,10 @@
       <c r="C278">
         <v>2010</v>
       </c>
-      <c r="D278" s="10" t="s">
+      <c r="D278" t="s">
         <v>215</v>
       </c>
-      <c r="E278" s="14">
+      <c r="E278" s="2">
         <v>771.3</v>
       </c>
       <c r="F278" s="5">
@@ -19633,10 +19626,10 @@
       <c r="C279">
         <v>2010</v>
       </c>
-      <c r="D279" s="10" t="s">
+      <c r="D279" t="s">
         <v>216</v>
       </c>
-      <c r="E279" s="14">
+      <c r="E279" s="2">
         <v>771.3</v>
       </c>
       <c r="F279" s="5">
@@ -19653,10 +19646,10 @@
       <c r="C280">
         <v>2010</v>
       </c>
-      <c r="D280" s="10" t="s">
+      <c r="D280" t="s">
         <v>217</v>
       </c>
-      <c r="E280" s="14">
+      <c r="E280" s="2">
         <v>771.3</v>
       </c>
       <c r="F280" s="5">
@@ -19673,10 +19666,10 @@
       <c r="C281">
         <v>2010</v>
       </c>
-      <c r="D281" s="10" t="s">
+      <c r="D281" t="s">
         <v>211</v>
       </c>
-      <c r="E281" s="14">
+      <c r="E281" s="2">
         <v>771.3</v>
       </c>
       <c r="F281" s="5">
@@ -19693,10 +19686,10 @@
       <c r="C282">
         <v>2010</v>
       </c>
-      <c r="D282" s="10" t="s">
+      <c r="D282" t="s">
         <v>218</v>
       </c>
-      <c r="E282" s="14">
+      <c r="E282" s="2">
         <v>771.3</v>
       </c>
       <c r="F282" s="5">
@@ -19713,10 +19706,10 @@
       <c r="C283">
         <v>2010</v>
       </c>
-      <c r="D283" s="10" t="s">
+      <c r="D283" t="s">
         <v>219</v>
       </c>
-      <c r="E283" s="14">
+      <c r="E283" s="2">
         <v>771.3</v>
       </c>
       <c r="F283" s="5">
@@ -19733,10 +19726,10 @@
       <c r="C284">
         <v>2010</v>
       </c>
-      <c r="D284" s="10" t="s">
+      <c r="D284" t="s">
         <v>210</v>
       </c>
-      <c r="E284" s="14">
+      <c r="E284" s="2">
         <v>771.3</v>
       </c>
       <c r="F284" s="5">
@@ -19753,10 +19746,10 @@
       <c r="C285">
         <v>2010</v>
       </c>
-      <c r="D285" s="10" t="s">
+      <c r="D285" t="s">
         <v>220</v>
       </c>
-      <c r="E285" s="14">
+      <c r="E285" s="2">
         <v>771.3</v>
       </c>
       <c r="F285" s="5">
@@ -19773,10 +19766,10 @@
       <c r="C286">
         <v>2010</v>
       </c>
-      <c r="D286" s="10" t="s">
+      <c r="D286" t="s">
         <v>221</v>
       </c>
-      <c r="E286" s="14">
+      <c r="E286" s="2">
         <v>771.3</v>
       </c>
       <c r="F286" s="5">
@@ -19793,10 +19786,10 @@
       <c r="C287">
         <v>2010</v>
       </c>
-      <c r="D287" s="10" t="s">
+      <c r="D287" t="s">
         <v>222</v>
       </c>
-      <c r="E287" s="14">
+      <c r="E287" s="2">
         <v>771.3</v>
       </c>
       <c r="F287" s="5">
@@ -19813,10 +19806,10 @@
       <c r="C288">
         <v>2010</v>
       </c>
-      <c r="D288" s="10" t="s">
+      <c r="D288" t="s">
         <v>223</v>
       </c>
-      <c r="E288" s="14">
+      <c r="E288" s="2">
         <v>771.3</v>
       </c>
       <c r="F288" s="5">
@@ -19833,10 +19826,10 @@
       <c r="C289">
         <v>2010</v>
       </c>
-      <c r="D289" s="10" t="s">
+      <c r="D289" t="s">
         <v>209</v>
       </c>
-      <c r="E289" s="14">
+      <c r="E289" s="2">
         <v>771.3</v>
       </c>
       <c r="F289" s="5">
@@ -19853,10 +19846,10 @@
       <c r="C290">
         <v>2010</v>
       </c>
-      <c r="D290" s="10" t="s">
+      <c r="D290" t="s">
         <v>224</v>
       </c>
-      <c r="E290" s="14">
+      <c r="E290" s="2">
         <v>771.3</v>
       </c>
       <c r="F290" s="5">
@@ -19873,10 +19866,10 @@
       <c r="C291">
         <v>2010</v>
       </c>
-      <c r="D291" s="10" t="s">
+      <c r="D291" t="s">
         <v>225</v>
       </c>
-      <c r="E291" s="14">
+      <c r="E291" s="2">
         <v>771.3</v>
       </c>
       <c r="F291" s="5">
@@ -19893,10 +19886,10 @@
       <c r="C292">
         <v>2010</v>
       </c>
-      <c r="D292" s="10" t="s">
+      <c r="D292" t="s">
         <v>226</v>
       </c>
-      <c r="E292" s="14">
+      <c r="E292" s="2">
         <v>771.3</v>
       </c>
       <c r="F292" s="5">
@@ -19913,10 +19906,10 @@
       <c r="C293">
         <v>2010</v>
       </c>
-      <c r="D293" s="10" t="s">
+      <c r="D293" t="s">
         <v>227</v>
       </c>
-      <c r="E293" s="14">
+      <c r="E293" s="2">
         <v>771.3</v>
       </c>
       <c r="F293" s="5">
@@ -19933,10 +19926,10 @@
       <c r="C294">
         <v>2010</v>
       </c>
-      <c r="D294" s="10" t="s">
+      <c r="D294" t="s">
         <v>228</v>
       </c>
-      <c r="E294" s="14">
+      <c r="E294" s="2">
         <v>771.3</v>
       </c>
       <c r="F294" s="5">
@@ -19953,10 +19946,10 @@
       <c r="C295">
         <v>2010</v>
       </c>
-      <c r="D295" s="10" t="s">
+      <c r="D295" t="s">
         <v>229</v>
       </c>
-      <c r="E295" s="14">
+      <c r="E295" s="2">
         <v>771.3</v>
       </c>
       <c r="F295" s="5">
@@ -19973,10 +19966,10 @@
       <c r="C296">
         <v>2011</v>
       </c>
-      <c r="D296" s="10" t="s">
+      <c r="D296" t="s">
         <v>212</v>
       </c>
-      <c r="E296" s="10">
+      <c r="E296">
         <v>488.4</v>
       </c>
       <c r="F296" s="6">
@@ -19993,10 +19986,10 @@
       <c r="C297">
         <v>2011</v>
       </c>
-      <c r="D297" s="10" t="s">
+      <c r="D297" t="s">
         <v>213</v>
       </c>
-      <c r="E297" s="10">
+      <c r="E297">
         <v>488.4</v>
       </c>
       <c r="F297" s="5">
@@ -20013,10 +20006,10 @@
       <c r="C298">
         <v>2011</v>
       </c>
-      <c r="D298" s="10" t="s">
+      <c r="D298" t="s">
         <v>214</v>
       </c>
-      <c r="E298" s="10">
+      <c r="E298">
         <v>488.4</v>
       </c>
       <c r="F298" s="5">
@@ -20033,10 +20026,10 @@
       <c r="C299">
         <v>2011</v>
       </c>
-      <c r="D299" s="10" t="s">
+      <c r="D299" t="s">
         <v>215</v>
       </c>
-      <c r="E299" s="10">
+      <c r="E299">
         <v>488.4</v>
       </c>
       <c r="F299" s="5">
@@ -20053,10 +20046,10 @@
       <c r="C300">
         <v>2011</v>
       </c>
-      <c r="D300" s="10" t="s">
+      <c r="D300" t="s">
         <v>216</v>
       </c>
-      <c r="E300" s="10">
+      <c r="E300">
         <v>488.4</v>
       </c>
       <c r="F300" s="5">
@@ -20073,10 +20066,10 @@
       <c r="C301">
         <v>2011</v>
       </c>
-      <c r="D301" s="10" t="s">
+      <c r="D301" t="s">
         <v>217</v>
       </c>
-      <c r="E301" s="10">
+      <c r="E301">
         <v>488.4</v>
       </c>
       <c r="F301" s="5">
@@ -20093,10 +20086,10 @@
       <c r="C302">
         <v>2011</v>
       </c>
-      <c r="D302" s="10" t="s">
+      <c r="D302" t="s">
         <v>211</v>
       </c>
-      <c r="E302" s="10">
+      <c r="E302">
         <v>488.4</v>
       </c>
       <c r="F302" s="5">
@@ -20113,10 +20106,10 @@
       <c r="C303">
         <v>2011</v>
       </c>
-      <c r="D303" s="10" t="s">
+      <c r="D303" t="s">
         <v>218</v>
       </c>
-      <c r="E303" s="10">
+      <c r="E303">
         <v>488.4</v>
       </c>
       <c r="F303" s="5">
@@ -20133,10 +20126,10 @@
       <c r="C304">
         <v>2011</v>
       </c>
-      <c r="D304" s="10" t="s">
+      <c r="D304" t="s">
         <v>219</v>
       </c>
-      <c r="E304" s="10">
+      <c r="E304">
         <v>488.4</v>
       </c>
       <c r="F304" s="5">
@@ -20153,10 +20146,10 @@
       <c r="C305">
         <v>2011</v>
       </c>
-      <c r="D305" s="10" t="s">
+      <c r="D305" t="s">
         <v>210</v>
       </c>
-      <c r="E305" s="10">
+      <c r="E305">
         <v>488.4</v>
       </c>
       <c r="F305" s="5">
@@ -20173,10 +20166,10 @@
       <c r="C306">
         <v>2011</v>
       </c>
-      <c r="D306" s="10" t="s">
+      <c r="D306" t="s">
         <v>220</v>
       </c>
-      <c r="E306" s="10">
+      <c r="E306">
         <v>488.4</v>
       </c>
       <c r="F306" s="5">
@@ -20193,10 +20186,10 @@
       <c r="C307">
         <v>2011</v>
       </c>
-      <c r="D307" s="10" t="s">
+      <c r="D307" t="s">
         <v>221</v>
       </c>
-      <c r="E307" s="10">
+      <c r="E307">
         <v>488.4</v>
       </c>
       <c r="F307" s="5">
@@ -20213,10 +20206,10 @@
       <c r="C308">
         <v>2011</v>
       </c>
-      <c r="D308" s="10" t="s">
+      <c r="D308" t="s">
         <v>222</v>
       </c>
-      <c r="E308" s="10">
+      <c r="E308">
         <v>488.4</v>
       </c>
       <c r="F308" s="5">
@@ -20233,10 +20226,10 @@
       <c r="C309">
         <v>2011</v>
       </c>
-      <c r="D309" s="10" t="s">
+      <c r="D309" t="s">
         <v>223</v>
       </c>
-      <c r="E309" s="10">
+      <c r="E309">
         <v>488.4</v>
       </c>
       <c r="F309" s="5">
@@ -20253,10 +20246,10 @@
       <c r="C310">
         <v>2011</v>
       </c>
-      <c r="D310" s="10" t="s">
+      <c r="D310" t="s">
         <v>209</v>
       </c>
-      <c r="E310" s="10">
+      <c r="E310">
         <v>488.4</v>
       </c>
       <c r="F310" s="5">
@@ -20273,10 +20266,10 @@
       <c r="C311">
         <v>2011</v>
       </c>
-      <c r="D311" s="10" t="s">
+      <c r="D311" t="s">
         <v>224</v>
       </c>
-      <c r="E311" s="10">
+      <c r="E311">
         <v>488.4</v>
       </c>
       <c r="F311" s="5">
@@ -20293,10 +20286,10 @@
       <c r="C312">
         <v>2011</v>
       </c>
-      <c r="D312" s="10" t="s">
+      <c r="D312" t="s">
         <v>225</v>
       </c>
-      <c r="E312" s="10">
+      <c r="E312">
         <v>488.4</v>
       </c>
       <c r="F312" s="5">
@@ -20313,10 +20306,10 @@
       <c r="C313">
         <v>2011</v>
       </c>
-      <c r="D313" s="10" t="s">
+      <c r="D313" t="s">
         <v>226</v>
       </c>
-      <c r="E313" s="10">
+      <c r="E313">
         <v>488.4</v>
       </c>
       <c r="F313" s="5">
@@ -20333,10 +20326,10 @@
       <c r="C314">
         <v>2011</v>
       </c>
-      <c r="D314" s="10" t="s">
+      <c r="D314" t="s">
         <v>227</v>
       </c>
-      <c r="E314" s="10">
+      <c r="E314">
         <v>488.4</v>
       </c>
       <c r="F314" s="5">
@@ -20353,10 +20346,10 @@
       <c r="C315">
         <v>2011</v>
       </c>
-      <c r="D315" s="10" t="s">
+      <c r="D315" t="s">
         <v>228</v>
       </c>
-      <c r="E315" s="10">
+      <c r="E315">
         <v>488.4</v>
       </c>
       <c r="F315" s="5">
@@ -20373,10 +20366,10 @@
       <c r="C316">
         <v>2011</v>
       </c>
-      <c r="D316" s="10" t="s">
+      <c r="D316" t="s">
         <v>229</v>
       </c>
-      <c r="E316" s="10">
+      <c r="E316">
         <v>488.4</v>
       </c>
       <c r="F316" s="5">
@@ -20393,7 +20386,7 @@
       <c r="C317">
         <v>2012</v>
       </c>
-      <c r="D317" s="10" t="s">
+      <c r="D317" t="s">
         <v>212</v>
       </c>
       <c r="E317" s="9">
@@ -20413,7 +20406,7 @@
       <c r="C318">
         <v>2012</v>
       </c>
-      <c r="D318" s="10" t="s">
+      <c r="D318" t="s">
         <v>213</v>
       </c>
       <c r="E318" s="9">
@@ -20433,7 +20426,7 @@
       <c r="C319">
         <v>2012</v>
       </c>
-      <c r="D319" s="10" t="s">
+      <c r="D319" t="s">
         <v>214</v>
       </c>
       <c r="E319" s="9">
@@ -20453,7 +20446,7 @@
       <c r="C320">
         <v>2012</v>
       </c>
-      <c r="D320" s="10" t="s">
+      <c r="D320" t="s">
         <v>215</v>
       </c>
       <c r="E320" s="9">
@@ -20473,7 +20466,7 @@
       <c r="C321">
         <v>2012</v>
       </c>
-      <c r="D321" s="10" t="s">
+      <c r="D321" t="s">
         <v>216</v>
       </c>
       <c r="E321" s="9">
@@ -20493,7 +20486,7 @@
       <c r="C322">
         <v>2012</v>
       </c>
-      <c r="D322" s="10" t="s">
+      <c r="D322" t="s">
         <v>217</v>
       </c>
       <c r="E322" s="9">
@@ -20513,7 +20506,7 @@
       <c r="C323">
         <v>2012</v>
       </c>
-      <c r="D323" s="10" t="s">
+      <c r="D323" t="s">
         <v>211</v>
       </c>
       <c r="E323" s="9">
@@ -20533,7 +20526,7 @@
       <c r="C324">
         <v>2012</v>
       </c>
-      <c r="D324" s="10" t="s">
+      <c r="D324" t="s">
         <v>218</v>
       </c>
       <c r="E324" s="9">
@@ -20553,7 +20546,7 @@
       <c r="C325">
         <v>2012</v>
       </c>
-      <c r="D325" s="10" t="s">
+      <c r="D325" t="s">
         <v>219</v>
       </c>
       <c r="E325" s="9">
@@ -20573,7 +20566,7 @@
       <c r="C326">
         <v>2012</v>
       </c>
-      <c r="D326" s="10" t="s">
+      <c r="D326" t="s">
         <v>210</v>
       </c>
       <c r="E326" s="9">
@@ -20593,7 +20586,7 @@
       <c r="C327">
         <v>2012</v>
       </c>
-      <c r="D327" s="10" t="s">
+      <c r="D327" t="s">
         <v>220</v>
       </c>
       <c r="E327" s="9">
@@ -20613,7 +20606,7 @@
       <c r="C328">
         <v>2012</v>
       </c>
-      <c r="D328" s="10" t="s">
+      <c r="D328" t="s">
         <v>221</v>
       </c>
       <c r="E328" s="9">
@@ -20633,7 +20626,7 @@
       <c r="C329">
         <v>2012</v>
       </c>
-      <c r="D329" s="10" t="s">
+      <c r="D329" t="s">
         <v>222</v>
       </c>
       <c r="E329" s="9">
@@ -20653,7 +20646,7 @@
       <c r="C330">
         <v>2012</v>
       </c>
-      <c r="D330" s="10" t="s">
+      <c r="D330" t="s">
         <v>223</v>
       </c>
       <c r="E330" s="9">
@@ -20673,7 +20666,7 @@
       <c r="C331">
         <v>2012</v>
       </c>
-      <c r="D331" s="10" t="s">
+      <c r="D331" t="s">
         <v>209</v>
       </c>
       <c r="E331" s="9">
@@ -20693,7 +20686,7 @@
       <c r="C332">
         <v>2012</v>
       </c>
-      <c r="D332" s="10" t="s">
+      <c r="D332" t="s">
         <v>224</v>
       </c>
       <c r="E332" s="9">
@@ -20713,7 +20706,7 @@
       <c r="C333">
         <v>2012</v>
       </c>
-      <c r="D333" s="10" t="s">
+      <c r="D333" t="s">
         <v>225</v>
       </c>
       <c r="E333" s="9">
@@ -20733,7 +20726,7 @@
       <c r="C334">
         <v>2012</v>
       </c>
-      <c r="D334" s="10" t="s">
+      <c r="D334" t="s">
         <v>226</v>
       </c>
       <c r="E334" s="9">
@@ -20753,7 +20746,7 @@
       <c r="C335">
         <v>2012</v>
       </c>
-      <c r="D335" s="10" t="s">
+      <c r="D335" t="s">
         <v>227</v>
       </c>
       <c r="E335" s="9">
@@ -20773,7 +20766,7 @@
       <c r="C336">
         <v>2012</v>
       </c>
-      <c r="D336" s="10" t="s">
+      <c r="D336" t="s">
         <v>228</v>
       </c>
       <c r="E336" s="9">
@@ -20793,7 +20786,7 @@
       <c r="C337">
         <v>2012</v>
       </c>
-      <c r="D337" s="10" t="s">
+      <c r="D337" t="s">
         <v>229</v>
       </c>
       <c r="E337" s="9">
@@ -20813,10 +20806,10 @@
       <c r="C338">
         <v>2013</v>
       </c>
-      <c r="D338" s="10" t="s">
+      <c r="D338" t="s">
         <v>212</v>
       </c>
-      <c r="E338" s="13">
+      <c r="E338" s="1">
         <v>591.13</v>
       </c>
       <c r="F338" s="6">
@@ -20833,10 +20826,10 @@
       <c r="C339">
         <v>2013</v>
       </c>
-      <c r="D339" s="10" t="s">
+      <c r="D339" t="s">
         <v>213</v>
       </c>
-      <c r="E339" s="13">
+      <c r="E339" s="1">
         <v>591.13</v>
       </c>
       <c r="F339" s="5">
@@ -20853,10 +20846,10 @@
       <c r="C340">
         <v>2013</v>
       </c>
-      <c r="D340" s="10" t="s">
+      <c r="D340" t="s">
         <v>214</v>
       </c>
-      <c r="E340" s="13">
+      <c r="E340" s="1">
         <v>591.13</v>
       </c>
       <c r="F340" s="5">
@@ -20873,10 +20866,10 @@
       <c r="C341">
         <v>2013</v>
       </c>
-      <c r="D341" s="10" t="s">
+      <c r="D341" t="s">
         <v>215</v>
       </c>
-      <c r="E341" s="13">
+      <c r="E341" s="1">
         <v>591.13</v>
       </c>
       <c r="F341" s="5">
@@ -20893,10 +20886,10 @@
       <c r="C342">
         <v>2013</v>
       </c>
-      <c r="D342" s="10" t="s">
+      <c r="D342" t="s">
         <v>216</v>
       </c>
-      <c r="E342" s="13">
+      <c r="E342" s="1">
         <v>591.13</v>
       </c>
       <c r="F342" s="5">
@@ -20913,10 +20906,10 @@
       <c r="C343">
         <v>2013</v>
       </c>
-      <c r="D343" s="10" t="s">
+      <c r="D343" t="s">
         <v>217</v>
       </c>
-      <c r="E343" s="13">
+      <c r="E343" s="1">
         <v>591.13</v>
       </c>
       <c r="F343" s="5">
@@ -20933,10 +20926,10 @@
       <c r="C344">
         <v>2013</v>
       </c>
-      <c r="D344" s="10" t="s">
+      <c r="D344" t="s">
         <v>211</v>
       </c>
-      <c r="E344" s="13">
+      <c r="E344" s="1">
         <v>591.13</v>
       </c>
       <c r="F344" s="5">
@@ -20953,10 +20946,10 @@
       <c r="C345">
         <v>2013</v>
       </c>
-      <c r="D345" s="10" t="s">
+      <c r="D345" t="s">
         <v>218</v>
       </c>
-      <c r="E345" s="13">
+      <c r="E345" s="1">
         <v>591.13</v>
       </c>
       <c r="F345" s="5">
@@ -20973,10 +20966,10 @@
       <c r="C346">
         <v>2013</v>
       </c>
-      <c r="D346" s="10" t="s">
+      <c r="D346" t="s">
         <v>219</v>
       </c>
-      <c r="E346" s="13">
+      <c r="E346" s="1">
         <v>591.13</v>
       </c>
       <c r="F346" s="5">
@@ -20993,10 +20986,10 @@
       <c r="C347">
         <v>2013</v>
       </c>
-      <c r="D347" s="10" t="s">
+      <c r="D347" t="s">
         <v>210</v>
       </c>
-      <c r="E347" s="13">
+      <c r="E347" s="1">
         <v>591.13</v>
       </c>
       <c r="F347" s="5">
@@ -21013,10 +21006,10 @@
       <c r="C348">
         <v>2013</v>
       </c>
-      <c r="D348" s="10" t="s">
+      <c r="D348" t="s">
         <v>220</v>
       </c>
-      <c r="E348" s="13">
+      <c r="E348" s="1">
         <v>591.13</v>
       </c>
       <c r="F348" s="5">
@@ -21033,10 +21026,10 @@
       <c r="C349">
         <v>2013</v>
       </c>
-      <c r="D349" s="10" t="s">
+      <c r="D349" t="s">
         <v>221</v>
       </c>
-      <c r="E349" s="13">
+      <c r="E349" s="1">
         <v>591.13</v>
       </c>
       <c r="F349" s="5">
@@ -21053,10 +21046,10 @@
       <c r="C350">
         <v>2013</v>
       </c>
-      <c r="D350" s="10" t="s">
+      <c r="D350" t="s">
         <v>222</v>
       </c>
-      <c r="E350" s="13">
+      <c r="E350" s="1">
         <v>591.13</v>
       </c>
       <c r="F350" s="5">
@@ -21073,10 +21066,10 @@
       <c r="C351">
         <v>2013</v>
       </c>
-      <c r="D351" s="10" t="s">
+      <c r="D351" t="s">
         <v>223</v>
       </c>
-      <c r="E351" s="13">
+      <c r="E351" s="1">
         <v>591.13</v>
       </c>
       <c r="F351" s="5">
@@ -21093,10 +21086,10 @@
       <c r="C352">
         <v>2013</v>
       </c>
-      <c r="D352" s="10" t="s">
+      <c r="D352" t="s">
         <v>209</v>
       </c>
-      <c r="E352" s="13">
+      <c r="E352" s="1">
         <v>591.13</v>
       </c>
       <c r="F352" s="5">
@@ -21113,10 +21106,10 @@
       <c r="C353">
         <v>2013</v>
       </c>
-      <c r="D353" s="10" t="s">
+      <c r="D353" t="s">
         <v>224</v>
       </c>
-      <c r="E353" s="13">
+      <c r="E353" s="1">
         <v>591.13</v>
       </c>
       <c r="F353" s="5">
@@ -21133,10 +21126,10 @@
       <c r="C354">
         <v>2013</v>
       </c>
-      <c r="D354" s="10" t="s">
+      <c r="D354" t="s">
         <v>225</v>
       </c>
-      <c r="E354" s="13">
+      <c r="E354" s="1">
         <v>591.13</v>
       </c>
       <c r="F354" s="5">
@@ -21153,10 +21146,10 @@
       <c r="C355">
         <v>2013</v>
       </c>
-      <c r="D355" s="10" t="s">
+      <c r="D355" t="s">
         <v>226</v>
       </c>
-      <c r="E355" s="13">
+      <c r="E355" s="1">
         <v>591.13</v>
       </c>
       <c r="F355" s="5">
@@ -21173,10 +21166,10 @@
       <c r="C356">
         <v>2013</v>
       </c>
-      <c r="D356" s="10" t="s">
+      <c r="D356" t="s">
         <v>227</v>
       </c>
-      <c r="E356" s="13">
+      <c r="E356" s="1">
         <v>591.13</v>
       </c>
       <c r="F356" s="5">
@@ -21193,10 +21186,10 @@
       <c r="C357">
         <v>2013</v>
       </c>
-      <c r="D357" s="10" t="s">
+      <c r="D357" t="s">
         <v>228</v>
       </c>
-      <c r="E357" s="13">
+      <c r="E357" s="1">
         <v>591.13</v>
       </c>
       <c r="F357" s="5">
@@ -21213,10 +21206,10 @@
       <c r="C358">
         <v>2013</v>
       </c>
-      <c r="D358" s="10" t="s">
+      <c r="D358" t="s">
         <v>229</v>
       </c>
-      <c r="E358" s="13">
+      <c r="E358" s="1">
         <v>591.13</v>
       </c>
       <c r="F358" s="5">
@@ -21233,10 +21226,10 @@
       <c r="C359">
         <v>2014</v>
       </c>
-      <c r="D359" s="10" t="s">
+      <c r="D359" t="s">
         <v>212</v>
       </c>
-      <c r="E359" s="13">
+      <c r="E359" s="1">
         <v>382.11</v>
       </c>
       <c r="F359" s="6">
@@ -21253,10 +21246,10 @@
       <c r="C360">
         <v>2014</v>
       </c>
-      <c r="D360" s="10" t="s">
+      <c r="D360" t="s">
         <v>213</v>
       </c>
-      <c r="E360" s="13">
+      <c r="E360" s="1">
         <v>382.11</v>
       </c>
       <c r="F360" s="5">
@@ -21273,10 +21266,10 @@
       <c r="C361">
         <v>2014</v>
       </c>
-      <c r="D361" s="10" t="s">
+      <c r="D361" t="s">
         <v>214</v>
       </c>
-      <c r="E361" s="13">
+      <c r="E361" s="1">
         <v>382.11</v>
       </c>
       <c r="F361" s="5">
@@ -21293,10 +21286,10 @@
       <c r="C362">
         <v>2014</v>
       </c>
-      <c r="D362" s="10" t="s">
+      <c r="D362" t="s">
         <v>215</v>
       </c>
-      <c r="E362" s="13">
+      <c r="E362" s="1">
         <v>382.11</v>
       </c>
       <c r="F362" s="5">
@@ -21313,10 +21306,10 @@
       <c r="C363">
         <v>2014</v>
       </c>
-      <c r="D363" s="10" t="s">
+      <c r="D363" t="s">
         <v>216</v>
       </c>
-      <c r="E363" s="13">
+      <c r="E363" s="1">
         <v>382.11</v>
       </c>
       <c r="F363" s="5">
@@ -21333,10 +21326,10 @@
       <c r="C364">
         <v>2014</v>
       </c>
-      <c r="D364" s="10" t="s">
+      <c r="D364" t="s">
         <v>217</v>
       </c>
-      <c r="E364" s="13">
+      <c r="E364" s="1">
         <v>382.11</v>
       </c>
       <c r="F364" s="5">
@@ -21353,10 +21346,10 @@
       <c r="C365">
         <v>2014</v>
       </c>
-      <c r="D365" s="10" t="s">
+      <c r="D365" t="s">
         <v>211</v>
       </c>
-      <c r="E365" s="13">
+      <c r="E365" s="1">
         <v>382.11</v>
       </c>
       <c r="F365" s="5">
@@ -21373,10 +21366,10 @@
       <c r="C366">
         <v>2014</v>
       </c>
-      <c r="D366" s="10" t="s">
+      <c r="D366" t="s">
         <v>218</v>
       </c>
-      <c r="E366" s="13">
+      <c r="E366" s="1">
         <v>382.11</v>
       </c>
       <c r="F366" s="5">
@@ -21393,10 +21386,10 @@
       <c r="C367">
         <v>2014</v>
       </c>
-      <c r="D367" s="10" t="s">
+      <c r="D367" t="s">
         <v>219</v>
       </c>
-      <c r="E367" s="13">
+      <c r="E367" s="1">
         <v>382.11</v>
       </c>
       <c r="F367" s="5">
@@ -21413,10 +21406,10 @@
       <c r="C368">
         <v>2014</v>
       </c>
-      <c r="D368" s="10" t="s">
+      <c r="D368" t="s">
         <v>210</v>
       </c>
-      <c r="E368" s="13">
+      <c r="E368" s="1">
         <v>382.11</v>
       </c>
       <c r="F368" s="5">
@@ -21433,10 +21426,10 @@
       <c r="C369">
         <v>2014</v>
       </c>
-      <c r="D369" s="10" t="s">
+      <c r="D369" t="s">
         <v>220</v>
       </c>
-      <c r="E369" s="13">
+      <c r="E369" s="1">
         <v>382.11</v>
       </c>
       <c r="F369" s="5">
@@ -21453,10 +21446,10 @@
       <c r="C370">
         <v>2014</v>
       </c>
-      <c r="D370" s="10" t="s">
+      <c r="D370" t="s">
         <v>221</v>
       </c>
-      <c r="E370" s="13">
+      <c r="E370" s="1">
         <v>382.11</v>
       </c>
       <c r="F370" s="5">
@@ -21473,10 +21466,10 @@
       <c r="C371">
         <v>2014</v>
       </c>
-      <c r="D371" s="10" t="s">
+      <c r="D371" t="s">
         <v>222</v>
       </c>
-      <c r="E371" s="13">
+      <c r="E371" s="1">
         <v>382.11</v>
       </c>
       <c r="F371" s="5">
@@ -21493,10 +21486,10 @@
       <c r="C372">
         <v>2014</v>
       </c>
-      <c r="D372" s="10" t="s">
+      <c r="D372" t="s">
         <v>223</v>
       </c>
-      <c r="E372" s="13">
+      <c r="E372" s="1">
         <v>382.11</v>
       </c>
       <c r="F372" s="5">
@@ -21513,10 +21506,10 @@
       <c r="C373">
         <v>2014</v>
       </c>
-      <c r="D373" s="10" t="s">
+      <c r="D373" t="s">
         <v>209</v>
       </c>
-      <c r="E373" s="13">
+      <c r="E373" s="1">
         <v>382.11</v>
       </c>
       <c r="F373" s="5">
@@ -21533,10 +21526,10 @@
       <c r="C374">
         <v>2014</v>
       </c>
-      <c r="D374" s="10" t="s">
+      <c r="D374" t="s">
         <v>224</v>
       </c>
-      <c r="E374" s="13">
+      <c r="E374" s="1">
         <v>382.11</v>
       </c>
       <c r="F374" s="5">
@@ -21553,10 +21546,10 @@
       <c r="C375">
         <v>2014</v>
       </c>
-      <c r="D375" s="10" t="s">
+      <c r="D375" t="s">
         <v>225</v>
       </c>
-      <c r="E375" s="13">
+      <c r="E375" s="1">
         <v>382.11</v>
       </c>
       <c r="F375" s="5">
@@ -21573,10 +21566,10 @@
       <c r="C376">
         <v>2014</v>
       </c>
-      <c r="D376" s="10" t="s">
+      <c r="D376" t="s">
         <v>226</v>
       </c>
-      <c r="E376" s="13">
+      <c r="E376" s="1">
         <v>382.11</v>
       </c>
       <c r="F376" s="5">
@@ -21593,10 +21586,10 @@
       <c r="C377">
         <v>2014</v>
       </c>
-      <c r="D377" s="10" t="s">
+      <c r="D377" t="s">
         <v>227</v>
       </c>
-      <c r="E377" s="13">
+      <c r="E377" s="1">
         <v>382.11</v>
       </c>
       <c r="F377" s="5">
@@ -21613,10 +21606,10 @@
       <c r="C378">
         <v>2014</v>
       </c>
-      <c r="D378" s="10" t="s">
+      <c r="D378" t="s">
         <v>228</v>
       </c>
-      <c r="E378" s="13">
+      <c r="E378" s="1">
         <v>382.11</v>
       </c>
       <c r="F378" s="5">
@@ -21633,33 +21626,33 @@
       <c r="C379">
         <v>2014</v>
       </c>
-      <c r="D379" s="10" t="s">
+      <c r="D379" t="s">
         <v>229</v>
       </c>
-      <c r="E379" s="13">
+      <c r="E379" s="1">
         <v>382.11</v>
       </c>
       <c r="F379" s="5">
         <v>1480</v>
       </c>
     </row>
-    <row r="380" spans="1:6" s="11" customFormat="1">
-      <c r="A380" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B380" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C380" s="11">
+    <row r="380" spans="1:6" s="10" customFormat="1">
+      <c r="A380" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B380" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="10">
         <v>2015</v>
       </c>
-      <c r="D380" s="11" t="s">
+      <c r="D380" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E380" s="13">
+      <c r="E380" s="1">
         <v>492.1</v>
       </c>
-      <c r="F380" s="12">
+      <c r="F380" s="11">
         <v>1698</v>
       </c>
     </row>
@@ -21673,10 +21666,10 @@
       <c r="C381">
         <v>2015</v>
       </c>
-      <c r="D381" s="10" t="s">
+      <c r="D381" t="s">
         <v>213</v>
       </c>
-      <c r="E381" s="13">
+      <c r="E381" s="1">
         <v>492.1</v>
       </c>
       <c r="F381" s="5">
@@ -21693,10 +21686,10 @@
       <c r="C382">
         <v>2015</v>
       </c>
-      <c r="D382" s="10" t="s">
+      <c r="D382" t="s">
         <v>214</v>
       </c>
-      <c r="E382" s="13">
+      <c r="E382" s="1">
         <v>492.1</v>
       </c>
       <c r="F382" s="5">
@@ -21713,10 +21706,10 @@
       <c r="C383">
         <v>2015</v>
       </c>
-      <c r="D383" s="10" t="s">
+      <c r="D383" t="s">
         <v>215</v>
       </c>
-      <c r="E383" s="13">
+      <c r="E383" s="1">
         <v>492.1</v>
       </c>
       <c r="F383" s="5">
@@ -21733,10 +21726,10 @@
       <c r="C384">
         <v>2015</v>
       </c>
-      <c r="D384" s="10" t="s">
+      <c r="D384" t="s">
         <v>216</v>
       </c>
-      <c r="E384" s="13">
+      <c r="E384" s="1">
         <v>492.1</v>
       </c>
       <c r="F384" s="5">
@@ -21753,10 +21746,10 @@
       <c r="C385">
         <v>2015</v>
       </c>
-      <c r="D385" s="10" t="s">
+      <c r="D385" t="s">
         <v>217</v>
       </c>
-      <c r="E385" s="13">
+      <c r="E385" s="1">
         <v>492.1</v>
       </c>
       <c r="F385" s="5">
@@ -21773,10 +21766,10 @@
       <c r="C386">
         <v>2015</v>
       </c>
-      <c r="D386" s="10" t="s">
+      <c r="D386" t="s">
         <v>211</v>
       </c>
-      <c r="E386" s="13">
+      <c r="E386" s="1">
         <v>492.1</v>
       </c>
       <c r="F386" s="5">
@@ -21793,10 +21786,10 @@
       <c r="C387">
         <v>2015</v>
       </c>
-      <c r="D387" s="10" t="s">
+      <c r="D387" t="s">
         <v>218</v>
       </c>
-      <c r="E387" s="13">
+      <c r="E387" s="1">
         <v>492.1</v>
       </c>
       <c r="F387" s="5">
@@ -21813,10 +21806,10 @@
       <c r="C388">
         <v>2015</v>
       </c>
-      <c r="D388" s="10" t="s">
+      <c r="D388" t="s">
         <v>219</v>
       </c>
-      <c r="E388" s="13">
+      <c r="E388" s="1">
         <v>492.1</v>
       </c>
       <c r="F388" s="5">
@@ -21833,10 +21826,10 @@
       <c r="C389">
         <v>2015</v>
       </c>
-      <c r="D389" s="10" t="s">
+      <c r="D389" t="s">
         <v>210</v>
       </c>
-      <c r="E389" s="13">
+      <c r="E389" s="1">
         <v>492.1</v>
       </c>
       <c r="F389" s="5">
@@ -21853,10 +21846,10 @@
       <c r="C390">
         <v>2015</v>
       </c>
-      <c r="D390" s="10" t="s">
+      <c r="D390" t="s">
         <v>220</v>
       </c>
-      <c r="E390" s="13">
+      <c r="E390" s="1">
         <v>492.1</v>
       </c>
       <c r="F390" s="5">
@@ -21873,10 +21866,10 @@
       <c r="C391">
         <v>2015</v>
       </c>
-      <c r="D391" s="10" t="s">
+      <c r="D391" t="s">
         <v>221</v>
       </c>
-      <c r="E391" s="13">
+      <c r="E391" s="1">
         <v>492.1</v>
       </c>
       <c r="F391" s="5">
@@ -21893,10 +21886,10 @@
       <c r="C392">
         <v>2015</v>
       </c>
-      <c r="D392" s="10" t="s">
+      <c r="D392" t="s">
         <v>222</v>
       </c>
-      <c r="E392" s="13">
+      <c r="E392" s="1">
         <v>492.1</v>
       </c>
       <c r="F392" s="5">
@@ -21913,10 +21906,10 @@
       <c r="C393">
         <v>2015</v>
       </c>
-      <c r="D393" s="10" t="s">
+      <c r="D393" t="s">
         <v>223</v>
       </c>
-      <c r="E393" s="13">
+      <c r="E393" s="1">
         <v>492.1</v>
       </c>
       <c r="F393" s="5">
@@ -21933,10 +21926,10 @@
       <c r="C394">
         <v>2015</v>
       </c>
-      <c r="D394" s="10" t="s">
+      <c r="D394" t="s">
         <v>209</v>
       </c>
-      <c r="E394" s="13">
+      <c r="E394" s="1">
         <v>492.1</v>
       </c>
       <c r="F394" s="5">
@@ -21953,10 +21946,10 @@
       <c r="C395">
         <v>2015</v>
       </c>
-      <c r="D395" s="10" t="s">
+      <c r="D395" t="s">
         <v>224</v>
       </c>
-      <c r="E395" s="13">
+      <c r="E395" s="1">
         <v>492.1</v>
       </c>
       <c r="F395" s="5">
@@ -21973,10 +21966,10 @@
       <c r="C396">
         <v>2015</v>
       </c>
-      <c r="D396" s="10" t="s">
+      <c r="D396" t="s">
         <v>225</v>
       </c>
-      <c r="E396" s="13">
+      <c r="E396" s="1">
         <v>492.1</v>
       </c>
       <c r="F396" s="5">
@@ -21993,10 +21986,10 @@
       <c r="C397">
         <v>2015</v>
       </c>
-      <c r="D397" s="10" t="s">
+      <c r="D397" t="s">
         <v>226</v>
       </c>
-      <c r="E397" s="13">
+      <c r="E397" s="1">
         <v>492.1</v>
       </c>
       <c r="F397" s="5">
@@ -22013,10 +22006,10 @@
       <c r="C398">
         <v>2015</v>
       </c>
-      <c r="D398" s="10" t="s">
+      <c r="D398" t="s">
         <v>227</v>
       </c>
-      <c r="E398" s="13">
+      <c r="E398" s="1">
         <v>492.1</v>
       </c>
       <c r="F398" s="5">
@@ -22033,10 +22026,10 @@
       <c r="C399">
         <v>2015</v>
       </c>
-      <c r="D399" s="10" t="s">
+      <c r="D399" t="s">
         <v>228</v>
       </c>
-      <c r="E399" s="13">
+      <c r="E399" s="1">
         <v>492.1</v>
       </c>
       <c r="F399" s="5">
@@ -22053,10 +22046,10 @@
       <c r="C400">
         <v>2015</v>
       </c>
-      <c r="D400" s="10" t="s">
+      <c r="D400" t="s">
         <v>229</v>
       </c>
-      <c r="E400" s="13">
+      <c r="E400" s="1">
         <v>492.1</v>
       </c>
       <c r="F400" s="5">
@@ -22073,10 +22066,10 @@
       <c r="C401">
         <v>2016</v>
       </c>
-      <c r="D401" s="10" t="s">
+      <c r="D401" t="s">
         <v>212</v>
       </c>
-      <c r="E401" s="13">
+      <c r="E401" s="1">
         <v>344.13</v>
       </c>
       <c r="F401" s="6">
@@ -22093,10 +22086,10 @@
       <c r="C402">
         <v>2016</v>
       </c>
-      <c r="D402" s="10" t="s">
+      <c r="D402" t="s">
         <v>213</v>
       </c>
-      <c r="E402" s="13">
+      <c r="E402" s="1">
         <v>344.13</v>
       </c>
       <c r="F402" s="5">
@@ -22113,10 +22106,10 @@
       <c r="C403">
         <v>2016</v>
       </c>
-      <c r="D403" s="10" t="s">
+      <c r="D403" t="s">
         <v>214</v>
       </c>
-      <c r="E403" s="13">
+      <c r="E403" s="1">
         <v>344.13</v>
       </c>
       <c r="F403" s="5">
@@ -22133,10 +22126,10 @@
       <c r="C404">
         <v>2016</v>
       </c>
-      <c r="D404" s="10" t="s">
+      <c r="D404" t="s">
         <v>215</v>
       </c>
-      <c r="E404" s="13">
+      <c r="E404" s="1">
         <v>344.13</v>
       </c>
       <c r="F404" s="5">
@@ -22153,10 +22146,10 @@
       <c r="C405">
         <v>2016</v>
       </c>
-      <c r="D405" s="10" t="s">
+      <c r="D405" t="s">
         <v>216</v>
       </c>
-      <c r="E405" s="13">
+      <c r="E405" s="1">
         <v>344.13</v>
       </c>
       <c r="F405" s="5">
@@ -22173,10 +22166,10 @@
       <c r="C406">
         <v>2016</v>
       </c>
-      <c r="D406" s="10" t="s">
+      <c r="D406" t="s">
         <v>217</v>
       </c>
-      <c r="E406" s="13">
+      <c r="E406" s="1">
         <v>344.13</v>
       </c>
       <c r="F406" s="5">
@@ -22193,10 +22186,10 @@
       <c r="C407">
         <v>2016</v>
       </c>
-      <c r="D407" s="10" t="s">
+      <c r="D407" t="s">
         <v>211</v>
       </c>
-      <c r="E407" s="13">
+      <c r="E407" s="1">
         <v>344.13</v>
       </c>
       <c r="F407" s="5">
@@ -22213,10 +22206,10 @@
       <c r="C408">
         <v>2016</v>
       </c>
-      <c r="D408" s="10" t="s">
+      <c r="D408" t="s">
         <v>218</v>
       </c>
-      <c r="E408" s="13">
+      <c r="E408" s="1">
         <v>344.13</v>
       </c>
       <c r="F408" s="5">
@@ -22233,10 +22226,10 @@
       <c r="C409">
         <v>2016</v>
       </c>
-      <c r="D409" s="10" t="s">
+      <c r="D409" t="s">
         <v>219</v>
       </c>
-      <c r="E409" s="13">
+      <c r="E409" s="1">
         <v>344.13</v>
       </c>
       <c r="F409" s="5">
@@ -22253,10 +22246,10 @@
       <c r="C410">
         <v>2016</v>
       </c>
-      <c r="D410" s="10" t="s">
+      <c r="D410" t="s">
         <v>210</v>
       </c>
-      <c r="E410" s="13">
+      <c r="E410" s="1">
         <v>344.13</v>
       </c>
       <c r="F410" s="5">
@@ -22273,10 +22266,10 @@
       <c r="C411">
         <v>2016</v>
       </c>
-      <c r="D411" s="10" t="s">
+      <c r="D411" t="s">
         <v>220</v>
       </c>
-      <c r="E411" s="13">
+      <c r="E411" s="1">
         <v>344.13</v>
       </c>
       <c r="F411" s="5">
@@ -22293,10 +22286,10 @@
       <c r="C412">
         <v>2016</v>
       </c>
-      <c r="D412" s="10" t="s">
+      <c r="D412" t="s">
         <v>221</v>
       </c>
-      <c r="E412" s="13">
+      <c r="E412" s="1">
         <v>344.13</v>
       </c>
       <c r="F412" s="5">
@@ -22313,10 +22306,10 @@
       <c r="C413">
         <v>2016</v>
       </c>
-      <c r="D413" s="10" t="s">
+      <c r="D413" t="s">
         <v>222</v>
       </c>
-      <c r="E413" s="13">
+      <c r="E413" s="1">
         <v>344.13</v>
       </c>
       <c r="F413" s="5">
@@ -22333,10 +22326,10 @@
       <c r="C414">
         <v>2016</v>
       </c>
-      <c r="D414" s="10" t="s">
+      <c r="D414" t="s">
         <v>223</v>
       </c>
-      <c r="E414" s="13">
+      <c r="E414" s="1">
         <v>344.13</v>
       </c>
       <c r="F414" s="5">
@@ -22353,10 +22346,10 @@
       <c r="C415">
         <v>2016</v>
       </c>
-      <c r="D415" s="10" t="s">
+      <c r="D415" t="s">
         <v>209</v>
       </c>
-      <c r="E415" s="13">
+      <c r="E415" s="1">
         <v>344.13</v>
       </c>
       <c r="F415" s="5">
@@ -22373,10 +22366,10 @@
       <c r="C416">
         <v>2016</v>
       </c>
-      <c r="D416" s="10" t="s">
+      <c r="D416" t="s">
         <v>224</v>
       </c>
-      <c r="E416" s="13">
+      <c r="E416" s="1">
         <v>344.13</v>
       </c>
       <c r="F416" s="5">
@@ -22393,10 +22386,10 @@
       <c r="C417">
         <v>2016</v>
       </c>
-      <c r="D417" s="10" t="s">
+      <c r="D417" t="s">
         <v>225</v>
       </c>
-      <c r="E417" s="13">
+      <c r="E417" s="1">
         <v>344.13</v>
       </c>
       <c r="F417" s="5">
@@ -22413,10 +22406,10 @@
       <c r="C418">
         <v>2016</v>
       </c>
-      <c r="D418" s="10" t="s">
+      <c r="D418" t="s">
         <v>226</v>
       </c>
-      <c r="E418" s="13">
+      <c r="E418" s="1">
         <v>344.13</v>
       </c>
       <c r="F418" s="5">
@@ -22433,10 +22426,10 @@
       <c r="C419">
         <v>2016</v>
       </c>
-      <c r="D419" s="10" t="s">
+      <c r="D419" t="s">
         <v>227</v>
       </c>
-      <c r="E419" s="13">
+      <c r="E419" s="1">
         <v>344.13</v>
       </c>
       <c r="F419" s="5">
@@ -22453,10 +22446,10 @@
       <c r="C420">
         <v>2016</v>
       </c>
-      <c r="D420" s="10" t="s">
+      <c r="D420" t="s">
         <v>228</v>
       </c>
-      <c r="E420" s="13">
+      <c r="E420" s="1">
         <v>344.13</v>
       </c>
       <c r="F420" s="5">
@@ -22473,10 +22466,10 @@
       <c r="C421">
         <v>2016</v>
       </c>
-      <c r="D421" s="10" t="s">
+      <c r="D421" t="s">
         <v>229</v>
       </c>
-      <c r="E421" s="13">
+      <c r="E421" s="1">
         <v>344.13</v>
       </c>
       <c r="F421" s="5">
@@ -22493,10 +22486,10 @@
       <c r="C422">
         <v>2017</v>
       </c>
-      <c r="D422" s="10" t="s">
+      <c r="D422" t="s">
         <v>212</v>
       </c>
-      <c r="E422" s="17" t="s">
+      <c r="E422" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F422" s="6">
@@ -22513,10 +22506,10 @@
       <c r="C423">
         <v>2017</v>
       </c>
-      <c r="D423" s="10" t="s">
+      <c r="D423" t="s">
         <v>213</v>
       </c>
-      <c r="E423" s="17" t="s">
+      <c r="E423" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F423" s="5">
@@ -22533,10 +22526,10 @@
       <c r="C424">
         <v>2017</v>
       </c>
-      <c r="D424" s="10" t="s">
+      <c r="D424" t="s">
         <v>214</v>
       </c>
-      <c r="E424" s="17" t="s">
+      <c r="E424" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F424" s="5">
@@ -22553,10 +22546,10 @@
       <c r="C425">
         <v>2017</v>
       </c>
-      <c r="D425" s="10" t="s">
+      <c r="D425" t="s">
         <v>215</v>
       </c>
-      <c r="E425" s="17" t="s">
+      <c r="E425" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F425" s="5">
@@ -22573,10 +22566,10 @@
       <c r="C426">
         <v>2017</v>
       </c>
-      <c r="D426" s="10" t="s">
+      <c r="D426" t="s">
         <v>216</v>
       </c>
-      <c r="E426" s="17" t="s">
+      <c r="E426" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F426" s="5">
@@ -22593,10 +22586,10 @@
       <c r="C427">
         <v>2017</v>
       </c>
-      <c r="D427" s="10" t="s">
+      <c r="D427" t="s">
         <v>217</v>
       </c>
-      <c r="E427" s="17" t="s">
+      <c r="E427" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F427" s="5">
@@ -22613,10 +22606,10 @@
       <c r="C428">
         <v>2017</v>
       </c>
-      <c r="D428" s="10" t="s">
+      <c r="D428" t="s">
         <v>211</v>
       </c>
-      <c r="E428" s="17" t="s">
+      <c r="E428" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F428" s="5">
@@ -22633,10 +22626,10 @@
       <c r="C429">
         <v>2017</v>
       </c>
-      <c r="D429" s="10" t="s">
+      <c r="D429" t="s">
         <v>218</v>
       </c>
-      <c r="E429" s="17" t="s">
+      <c r="E429" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F429" s="5">
@@ -22653,10 +22646,10 @@
       <c r="C430">
         <v>2017</v>
       </c>
-      <c r="D430" s="10" t="s">
+      <c r="D430" t="s">
         <v>219</v>
       </c>
-      <c r="E430" s="17" t="s">
+      <c r="E430" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F430" s="5">
@@ -22673,10 +22666,10 @@
       <c r="C431">
         <v>2017</v>
       </c>
-      <c r="D431" s="10" t="s">
+      <c r="D431" t="s">
         <v>210</v>
       </c>
-      <c r="E431" s="17" t="s">
+      <c r="E431" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F431" s="5">
@@ -22693,10 +22686,10 @@
       <c r="C432">
         <v>2017</v>
       </c>
-      <c r="D432" s="10" t="s">
+      <c r="D432" t="s">
         <v>220</v>
       </c>
-      <c r="E432" s="17" t="s">
+      <c r="E432" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F432" s="5">
@@ -22713,10 +22706,10 @@
       <c r="C433">
         <v>2017</v>
       </c>
-      <c r="D433" s="10" t="s">
+      <c r="D433" t="s">
         <v>221</v>
       </c>
-      <c r="E433" s="17" t="s">
+      <c r="E433" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F433" s="5">
@@ -22733,10 +22726,10 @@
       <c r="C434">
         <v>2017</v>
       </c>
-      <c r="D434" s="10" t="s">
+      <c r="D434" t="s">
         <v>222</v>
       </c>
-      <c r="E434" s="17" t="s">
+      <c r="E434" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F434" s="5">
@@ -22753,10 +22746,10 @@
       <c r="C435">
         <v>2017</v>
       </c>
-      <c r="D435" s="10" t="s">
+      <c r="D435" t="s">
         <v>223</v>
       </c>
-      <c r="E435" s="17" t="s">
+      <c r="E435" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F435" s="5">
@@ -22773,10 +22766,10 @@
       <c r="C436">
         <v>2017</v>
       </c>
-      <c r="D436" s="10" t="s">
+      <c r="D436" t="s">
         <v>209</v>
       </c>
-      <c r="E436" s="17" t="s">
+      <c r="E436" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F436" s="5">
@@ -22793,10 +22786,10 @@
       <c r="C437">
         <v>2017</v>
       </c>
-      <c r="D437" s="10" t="s">
+      <c r="D437" t="s">
         <v>224</v>
       </c>
-      <c r="E437" s="17" t="s">
+      <c r="E437" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F437" s="5">
@@ -22813,10 +22806,10 @@
       <c r="C438">
         <v>2017</v>
       </c>
-      <c r="D438" s="10" t="s">
+      <c r="D438" t="s">
         <v>225</v>
       </c>
-      <c r="E438" s="17" t="s">
+      <c r="E438" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F438" s="5">
@@ -22833,10 +22826,10 @@
       <c r="C439">
         <v>2017</v>
       </c>
-      <c r="D439" s="10" t="s">
+      <c r="D439" t="s">
         <v>226</v>
       </c>
-      <c r="E439" s="17" t="s">
+      <c r="E439" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F439" s="5">
@@ -22853,10 +22846,10 @@
       <c r="C440">
         <v>2017</v>
       </c>
-      <c r="D440" s="10" t="s">
+      <c r="D440" t="s">
         <v>227</v>
       </c>
-      <c r="E440" s="17" t="s">
+      <c r="E440" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F440" s="5">
@@ -22873,10 +22866,10 @@
       <c r="C441">
         <v>2017</v>
       </c>
-      <c r="D441" s="10" t="s">
+      <c r="D441" t="s">
         <v>228</v>
       </c>
-      <c r="E441" s="17" t="s">
+      <c r="E441" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F441" s="5">
@@ -22893,10 +22886,10 @@
       <c r="C442">
         <v>2017</v>
       </c>
-      <c r="D442" s="10" t="s">
+      <c r="D442" t="s">
         <v>229</v>
       </c>
-      <c r="E442" s="17" t="s">
+      <c r="E442" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F442" s="5">
@@ -22913,10 +22906,10 @@
       <c r="C443">
         <v>2018</v>
       </c>
-      <c r="D443" s="10" t="s">
+      <c r="D443" t="s">
         <v>212</v>
       </c>
-      <c r="E443" s="10">
+      <c r="E443">
         <v>390.15</v>
       </c>
       <c r="F443" s="6">
@@ -22933,10 +22926,10 @@
       <c r="C444">
         <v>2018</v>
       </c>
-      <c r="D444" s="10" t="s">
+      <c r="D444" t="s">
         <v>213</v>
       </c>
-      <c r="E444" s="10">
+      <c r="E444">
         <v>390.15</v>
       </c>
       <c r="F444" s="5">
@@ -22953,10 +22946,10 @@
       <c r="C445">
         <v>2018</v>
       </c>
-      <c r="D445" s="10" t="s">
+      <c r="D445" t="s">
         <v>214</v>
       </c>
-      <c r="E445" s="10">
+      <c r="E445">
         <v>390.15</v>
       </c>
       <c r="F445" s="5">
@@ -22973,10 +22966,10 @@
       <c r="C446">
         <v>2018</v>
       </c>
-      <c r="D446" s="10" t="s">
+      <c r="D446" t="s">
         <v>215</v>
       </c>
-      <c r="E446" s="10">
+      <c r="E446">
         <v>390.15</v>
       </c>
       <c r="F446" s="5">
@@ -22993,10 +22986,10 @@
       <c r="C447">
         <v>2018</v>
       </c>
-      <c r="D447" s="10" t="s">
+      <c r="D447" t="s">
         <v>216</v>
       </c>
-      <c r="E447" s="10">
+      <c r="E447">
         <v>390.15</v>
       </c>
       <c r="F447" s="5">
@@ -23013,10 +23006,10 @@
       <c r="C448">
         <v>2018</v>
       </c>
-      <c r="D448" s="10" t="s">
+      <c r="D448" t="s">
         <v>217</v>
       </c>
-      <c r="E448" s="10">
+      <c r="E448">
         <v>390.15</v>
       </c>
       <c r="F448" s="5">
@@ -23033,10 +23026,10 @@
       <c r="C449">
         <v>2018</v>
       </c>
-      <c r="D449" s="10" t="s">
+      <c r="D449" t="s">
         <v>211</v>
       </c>
-      <c r="E449" s="10">
+      <c r="E449">
         <v>390.15</v>
       </c>
       <c r="F449" s="5">
@@ -23053,10 +23046,10 @@
       <c r="C450">
         <v>2018</v>
       </c>
-      <c r="D450" s="10" t="s">
+      <c r="D450" t="s">
         <v>218</v>
       </c>
-      <c r="E450" s="10">
+      <c r="E450">
         <v>390.15</v>
       </c>
       <c r="F450" s="5">
@@ -23073,10 +23066,10 @@
       <c r="C451">
         <v>2018</v>
       </c>
-      <c r="D451" s="10" t="s">
+      <c r="D451" t="s">
         <v>219</v>
       </c>
-      <c r="E451" s="10">
+      <c r="E451">
         <v>390.15</v>
       </c>
       <c r="F451" s="5">
@@ -23093,10 +23086,10 @@
       <c r="C452">
         <v>2018</v>
       </c>
-      <c r="D452" s="10" t="s">
+      <c r="D452" t="s">
         <v>210</v>
       </c>
-      <c r="E452" s="10">
+      <c r="E452">
         <v>390.15</v>
       </c>
       <c r="F452" s="5">
@@ -23113,10 +23106,10 @@
       <c r="C453">
         <v>2018</v>
       </c>
-      <c r="D453" s="10" t="s">
+      <c r="D453" t="s">
         <v>220</v>
       </c>
-      <c r="E453" s="10">
+      <c r="E453">
         <v>390.15</v>
       </c>
       <c r="F453" s="5">
@@ -23133,10 +23126,10 @@
       <c r="C454">
         <v>2018</v>
       </c>
-      <c r="D454" s="10" t="s">
+      <c r="D454" t="s">
         <v>221</v>
       </c>
-      <c r="E454" s="10">
+      <c r="E454">
         <v>390.15</v>
       </c>
       <c r="F454" s="5">
@@ -23153,10 +23146,10 @@
       <c r="C455">
         <v>2018</v>
       </c>
-      <c r="D455" s="10" t="s">
+      <c r="D455" t="s">
         <v>222</v>
       </c>
-      <c r="E455" s="10">
+      <c r="E455">
         <v>390.15</v>
       </c>
       <c r="F455" s="5">
@@ -23173,10 +23166,10 @@
       <c r="C456">
         <v>2018</v>
       </c>
-      <c r="D456" s="10" t="s">
+      <c r="D456" t="s">
         <v>223</v>
       </c>
-      <c r="E456" s="10">
+      <c r="E456">
         <v>390.15</v>
       </c>
       <c r="F456" s="5">
@@ -23193,10 +23186,10 @@
       <c r="C457">
         <v>2018</v>
       </c>
-      <c r="D457" s="10" t="s">
+      <c r="D457" t="s">
         <v>209</v>
       </c>
-      <c r="E457" s="10">
+      <c r="E457">
         <v>390.15</v>
       </c>
       <c r="F457" s="5">
@@ -23213,10 +23206,10 @@
       <c r="C458">
         <v>2018</v>
       </c>
-      <c r="D458" s="10" t="s">
+      <c r="D458" t="s">
         <v>224</v>
       </c>
-      <c r="E458" s="10">
+      <c r="E458">
         <v>390.15</v>
       </c>
       <c r="F458" s="5">
@@ -23233,10 +23226,10 @@
       <c r="C459">
         <v>2018</v>
       </c>
-      <c r="D459" s="10" t="s">
+      <c r="D459" t="s">
         <v>225</v>
       </c>
-      <c r="E459" s="10">
+      <c r="E459">
         <v>390.15</v>
       </c>
       <c r="F459" s="5">
@@ -23253,10 +23246,10 @@
       <c r="C460">
         <v>2018</v>
       </c>
-      <c r="D460" s="10" t="s">
+      <c r="D460" t="s">
         <v>226</v>
       </c>
-      <c r="E460" s="10">
+      <c r="E460">
         <v>390.15</v>
       </c>
       <c r="F460" s="5">
@@ -23273,10 +23266,10 @@
       <c r="C461">
         <v>2018</v>
       </c>
-      <c r="D461" s="10" t="s">
+      <c r="D461" t="s">
         <v>227</v>
       </c>
-      <c r="E461" s="10">
+      <c r="E461">
         <v>390.15</v>
       </c>
       <c r="F461" s="5">
@@ -23293,10 +23286,10 @@
       <c r="C462">
         <v>2018</v>
       </c>
-      <c r="D462" s="10" t="s">
+      <c r="D462" t="s">
         <v>228</v>
       </c>
-      <c r="E462" s="10">
+      <c r="E462">
         <v>390.15</v>
       </c>
       <c r="F462" s="5">
@@ -23313,10 +23306,10 @@
       <c r="C463">
         <v>2018</v>
       </c>
-      <c r="D463" s="10" t="s">
+      <c r="D463" t="s">
         <v>229</v>
       </c>
-      <c r="E463" s="10">
+      <c r="E463">
         <v>390.15</v>
       </c>
       <c r="F463" s="5">
@@ -23333,10 +23326,10 @@
       <c r="C464">
         <v>2019</v>
       </c>
-      <c r="D464" s="10" t="s">
+      <c r="D464" t="s">
         <v>212</v>
       </c>
-      <c r="E464" s="10">
+      <c r="E464">
         <v>442.45</v>
       </c>
       <c r="F464" s="6">
@@ -23353,10 +23346,10 @@
       <c r="C465">
         <v>2019</v>
       </c>
-      <c r="D465" s="10" t="s">
+      <c r="D465" t="s">
         <v>213</v>
       </c>
-      <c r="E465" s="10">
+      <c r="E465">
         <v>442.45</v>
       </c>
       <c r="F465" s="5">
@@ -23373,10 +23366,10 @@
       <c r="C466">
         <v>2019</v>
       </c>
-      <c r="D466" s="10" t="s">
+      <c r="D466" t="s">
         <v>214</v>
       </c>
-      <c r="E466" s="10">
+      <c r="E466">
         <v>442.45</v>
       </c>
       <c r="F466" s="5">
@@ -23393,10 +23386,10 @@
       <c r="C467">
         <v>2019</v>
       </c>
-      <c r="D467" s="10" t="s">
+      <c r="D467" t="s">
         <v>215</v>
       </c>
-      <c r="E467" s="10">
+      <c r="E467">
         <v>442.45</v>
       </c>
       <c r="F467" s="5">
@@ -23413,10 +23406,10 @@
       <c r="C468">
         <v>2019</v>
       </c>
-      <c r="D468" s="10" t="s">
+      <c r="D468" t="s">
         <v>216</v>
       </c>
-      <c r="E468" s="10">
+      <c r="E468">
         <v>442.45</v>
       </c>
       <c r="F468" s="5">
@@ -23433,10 +23426,10 @@
       <c r="C469">
         <v>2019</v>
       </c>
-      <c r="D469" s="10" t="s">
+      <c r="D469" t="s">
         <v>217</v>
       </c>
-      <c r="E469" s="10">
+      <c r="E469">
         <v>442.45</v>
       </c>
       <c r="F469" s="5">
@@ -23453,10 +23446,10 @@
       <c r="C470">
         <v>2019</v>
       </c>
-      <c r="D470" s="10" t="s">
+      <c r="D470" t="s">
         <v>211</v>
       </c>
-      <c r="E470" s="10">
+      <c r="E470">
         <v>442.45</v>
       </c>
       <c r="F470" s="5">
@@ -23473,10 +23466,10 @@
       <c r="C471">
         <v>2019</v>
       </c>
-      <c r="D471" s="10" t="s">
+      <c r="D471" t="s">
         <v>218</v>
       </c>
-      <c r="E471" s="10">
+      <c r="E471">
         <v>442.45</v>
       </c>
       <c r="F471" s="5">
@@ -23493,10 +23486,10 @@
       <c r="C472">
         <v>2019</v>
       </c>
-      <c r="D472" s="10" t="s">
+      <c r="D472" t="s">
         <v>219</v>
       </c>
-      <c r="E472" s="10">
+      <c r="E472">
         <v>442.45</v>
       </c>
       <c r="F472" s="5">
@@ -23513,10 +23506,10 @@
       <c r="C473">
         <v>2019</v>
       </c>
-      <c r="D473" s="10" t="s">
+      <c r="D473" t="s">
         <v>210</v>
       </c>
-      <c r="E473" s="10">
+      <c r="E473">
         <v>442.45</v>
       </c>
       <c r="F473" s="5">
@@ -23533,10 +23526,10 @@
       <c r="C474">
         <v>2019</v>
       </c>
-      <c r="D474" s="10" t="s">
+      <c r="D474" t="s">
         <v>220</v>
       </c>
-      <c r="E474" s="10">
+      <c r="E474">
         <v>442.45</v>
       </c>
       <c r="F474" s="5">
@@ -23553,10 +23546,10 @@
       <c r="C475">
         <v>2019</v>
       </c>
-      <c r="D475" s="10" t="s">
+      <c r="D475" t="s">
         <v>221</v>
       </c>
-      <c r="E475" s="10">
+      <c r="E475">
         <v>442.45</v>
       </c>
       <c r="F475" s="5">
@@ -23573,10 +23566,10 @@
       <c r="C476">
         <v>2019</v>
       </c>
-      <c r="D476" s="10" t="s">
+      <c r="D476" t="s">
         <v>222</v>
       </c>
-      <c r="E476" s="10">
+      <c r="E476">
         <v>442.45</v>
       </c>
       <c r="F476" s="5">
@@ -23593,10 +23586,10 @@
       <c r="C477">
         <v>2019</v>
       </c>
-      <c r="D477" s="10" t="s">
+      <c r="D477" t="s">
         <v>223</v>
       </c>
-      <c r="E477" s="10">
+      <c r="E477">
         <v>442.45</v>
       </c>
       <c r="F477" s="5">
@@ -23613,10 +23606,10 @@
       <c r="C478">
         <v>2019</v>
       </c>
-      <c r="D478" s="10" t="s">
+      <c r="D478" t="s">
         <v>209</v>
       </c>
-      <c r="E478" s="10">
+      <c r="E478">
         <v>442.45</v>
       </c>
       <c r="F478" s="5">
@@ -23633,10 +23626,10 @@
       <c r="C479">
         <v>2019</v>
       </c>
-      <c r="D479" s="10" t="s">
+      <c r="D479" t="s">
         <v>224</v>
       </c>
-      <c r="E479" s="10">
+      <c r="E479">
         <v>442.45</v>
       </c>
       <c r="F479" s="5">
@@ -23653,10 +23646,10 @@
       <c r="C480">
         <v>2019</v>
       </c>
-      <c r="D480" s="10" t="s">
+      <c r="D480" t="s">
         <v>225</v>
       </c>
-      <c r="E480" s="10">
+      <c r="E480">
         <v>442.45</v>
       </c>
       <c r="F480" s="5">
@@ -23673,10 +23666,10 @@
       <c r="C481">
         <v>2019</v>
       </c>
-      <c r="D481" s="10" t="s">
+      <c r="D481" t="s">
         <v>226</v>
       </c>
-      <c r="E481" s="10">
+      <c r="E481">
         <v>442.45</v>
       </c>
       <c r="F481" s="5">
@@ -23693,10 +23686,10 @@
       <c r="C482">
         <v>2019</v>
       </c>
-      <c r="D482" s="10" t="s">
+      <c r="D482" t="s">
         <v>227</v>
       </c>
-      <c r="E482" s="10">
+      <c r="E482">
         <v>442.45</v>
       </c>
       <c r="F482" s="5">
@@ -23713,10 +23706,10 @@
       <c r="C483">
         <v>2019</v>
       </c>
-      <c r="D483" s="10" t="s">
+      <c r="D483" t="s">
         <v>228</v>
       </c>
-      <c r="E483" s="10">
+      <c r="E483">
         <v>442.45</v>
       </c>
       <c r="F483" s="5">
@@ -23733,10 +23726,10 @@
       <c r="C484">
         <v>2019</v>
       </c>
-      <c r="D484" s="10" t="s">
+      <c r="D484" t="s">
         <v>229</v>
       </c>
-      <c r="E484" s="10">
+      <c r="E484">
         <v>442.45</v>
       </c>
       <c r="F484" s="5">
@@ -23753,10 +23746,10 @@
       <c r="C485">
         <v>2020</v>
       </c>
-      <c r="D485" s="10" t="s">
+      <c r="D485" t="s">
         <v>212</v>
       </c>
-      <c r="E485" s="10">
+      <c r="E485">
         <v>399.15</v>
       </c>
       <c r="F485" s="6">
@@ -23773,10 +23766,10 @@
       <c r="C486">
         <v>2020</v>
       </c>
-      <c r="D486" s="10" t="s">
+      <c r="D486" t="s">
         <v>213</v>
       </c>
-      <c r="E486" s="10">
+      <c r="E486">
         <v>399.15</v>
       </c>
       <c r="F486" s="5">
@@ -23793,10 +23786,10 @@
       <c r="C487">
         <v>2020</v>
       </c>
-      <c r="D487" s="10" t="s">
+      <c r="D487" t="s">
         <v>214</v>
       </c>
-      <c r="E487" s="10">
+      <c r="E487">
         <v>399.15</v>
       </c>
       <c r="F487" s="5">
@@ -23813,10 +23806,10 @@
       <c r="C488">
         <v>2020</v>
       </c>
-      <c r="D488" s="10" t="s">
+      <c r="D488" t="s">
         <v>215</v>
       </c>
-      <c r="E488" s="10">
+      <c r="E488">
         <v>399.15</v>
       </c>
       <c r="F488" s="5">
@@ -23833,10 +23826,10 @@
       <c r="C489">
         <v>2020</v>
       </c>
-      <c r="D489" s="10" t="s">
+      <c r="D489" t="s">
         <v>216</v>
       </c>
-      <c r="E489" s="10">
+      <c r="E489">
         <v>399.15</v>
       </c>
       <c r="F489" s="5">
@@ -23853,10 +23846,10 @@
       <c r="C490">
         <v>2020</v>
       </c>
-      <c r="D490" s="10" t="s">
+      <c r="D490" t="s">
         <v>217</v>
       </c>
-      <c r="E490" s="10">
+      <c r="E490">
         <v>399.15</v>
       </c>
       <c r="F490" s="5">
@@ -23873,10 +23866,10 @@
       <c r="C491">
         <v>2020</v>
       </c>
-      <c r="D491" s="10" t="s">
+      <c r="D491" t="s">
         <v>211</v>
       </c>
-      <c r="E491" s="10">
+      <c r="E491">
         <v>399.15</v>
       </c>
       <c r="F491" s="5">
@@ -23893,10 +23886,10 @@
       <c r="C492">
         <v>2020</v>
       </c>
-      <c r="D492" s="10" t="s">
+      <c r="D492" t="s">
         <v>218</v>
       </c>
-      <c r="E492" s="10">
+      <c r="E492">
         <v>399.15</v>
       </c>
       <c r="F492" s="5">
@@ -23913,10 +23906,10 @@
       <c r="C493">
         <v>2020</v>
       </c>
-      <c r="D493" s="10" t="s">
+      <c r="D493" t="s">
         <v>219</v>
       </c>
-      <c r="E493" s="10">
+      <c r="E493">
         <v>399.15</v>
       </c>
       <c r="F493" s="5">
@@ -23933,10 +23926,10 @@
       <c r="C494">
         <v>2020</v>
       </c>
-      <c r="D494" s="10" t="s">
+      <c r="D494" t="s">
         <v>210</v>
       </c>
-      <c r="E494" s="10">
+      <c r="E494">
         <v>399.15</v>
       </c>
       <c r="F494" s="5">
@@ -23953,10 +23946,10 @@
       <c r="C495">
         <v>2020</v>
       </c>
-      <c r="D495" s="10" t="s">
+      <c r="D495" t="s">
         <v>220</v>
       </c>
-      <c r="E495" s="10">
+      <c r="E495">
         <v>399.15</v>
       </c>
       <c r="F495" s="5">
@@ -23973,10 +23966,10 @@
       <c r="C496">
         <v>2020</v>
       </c>
-      <c r="D496" s="10" t="s">
+      <c r="D496" t="s">
         <v>221</v>
       </c>
-      <c r="E496" s="10">
+      <c r="E496">
         <v>399.15</v>
       </c>
       <c r="F496" s="5">
@@ -23993,10 +23986,10 @@
       <c r="C497">
         <v>2020</v>
       </c>
-      <c r="D497" s="10" t="s">
+      <c r="D497" t="s">
         <v>222</v>
       </c>
-      <c r="E497" s="10">
+      <c r="E497">
         <v>399.15</v>
       </c>
       <c r="F497" s="5">
@@ -24013,10 +24006,10 @@
       <c r="C498">
         <v>2020</v>
       </c>
-      <c r="D498" s="10" t="s">
+      <c r="D498" t="s">
         <v>223</v>
       </c>
-      <c r="E498" s="10">
+      <c r="E498">
         <v>399.15</v>
       </c>
       <c r="F498" s="5">
@@ -24033,10 +24026,10 @@
       <c r="C499">
         <v>2020</v>
       </c>
-      <c r="D499" s="10" t="s">
+      <c r="D499" t="s">
         <v>209</v>
       </c>
-      <c r="E499" s="10">
+      <c r="E499">
         <v>399.15</v>
       </c>
       <c r="F499" s="5">
@@ -24053,10 +24046,10 @@
       <c r="C500">
         <v>2020</v>
       </c>
-      <c r="D500" s="10" t="s">
+      <c r="D500" t="s">
         <v>224</v>
       </c>
-      <c r="E500" s="10">
+      <c r="E500">
         <v>399.15</v>
       </c>
       <c r="F500" s="5">
@@ -24073,10 +24066,10 @@
       <c r="C501">
         <v>2020</v>
       </c>
-      <c r="D501" s="10" t="s">
+      <c r="D501" t="s">
         <v>225</v>
       </c>
-      <c r="E501" s="10">
+      <c r="E501">
         <v>399.15</v>
       </c>
       <c r="F501" s="5">
@@ -24093,10 +24086,10 @@
       <c r="C502">
         <v>2020</v>
       </c>
-      <c r="D502" s="10" t="s">
+      <c r="D502" t="s">
         <v>226</v>
       </c>
-      <c r="E502" s="10">
+      <c r="E502">
         <v>399.15</v>
       </c>
       <c r="F502" s="5">
@@ -24113,10 +24106,10 @@
       <c r="C503">
         <v>2020</v>
       </c>
-      <c r="D503" s="10" t="s">
+      <c r="D503" t="s">
         <v>227</v>
       </c>
-      <c r="E503" s="10">
+      <c r="E503">
         <v>399.15</v>
       </c>
       <c r="F503" s="5">
@@ -24133,10 +24126,10 @@
       <c r="C504">
         <v>2020</v>
       </c>
-      <c r="D504" s="10" t="s">
+      <c r="D504" t="s">
         <v>228</v>
       </c>
-      <c r="E504" s="10">
+      <c r="E504">
         <v>399.15</v>
       </c>
       <c r="F504" s="5">
@@ -24153,10 +24146,10 @@
       <c r="C505">
         <v>2020</v>
       </c>
-      <c r="D505" s="10" t="s">
+      <c r="D505" t="s">
         <v>229</v>
       </c>
-      <c r="E505" s="10">
+      <c r="E505">
         <v>399.15</v>
       </c>
       <c r="F505" s="5">
@@ -24173,10 +24166,10 @@
       <c r="C506">
         <v>2021</v>
       </c>
-      <c r="D506" s="10" t="s">
+      <c r="D506" t="s">
         <v>212</v>
       </c>
-      <c r="E506" s="10">
+      <c r="E506">
         <v>415.45</v>
       </c>
       <c r="F506" s="6">
@@ -24193,10 +24186,10 @@
       <c r="C507">
         <v>2021</v>
       </c>
-      <c r="D507" s="10" t="s">
+      <c r="D507" t="s">
         <v>213</v>
       </c>
-      <c r="E507" s="10">
+      <c r="E507">
         <v>415.45</v>
       </c>
       <c r="F507" s="5">
@@ -24213,10 +24206,10 @@
       <c r="C508">
         <v>2021</v>
       </c>
-      <c r="D508" s="10" t="s">
+      <c r="D508" t="s">
         <v>214</v>
       </c>
-      <c r="E508" s="10">
+      <c r="E508">
         <v>415.45</v>
       </c>
       <c r="F508" s="5">
@@ -24233,10 +24226,10 @@
       <c r="C509">
         <v>2021</v>
       </c>
-      <c r="D509" s="10" t="s">
+      <c r="D509" t="s">
         <v>215</v>
       </c>
-      <c r="E509" s="10">
+      <c r="E509">
         <v>415.45</v>
       </c>
       <c r="F509" s="5">
@@ -24253,10 +24246,10 @@
       <c r="C510">
         <v>2021</v>
       </c>
-      <c r="D510" s="10" t="s">
+      <c r="D510" t="s">
         <v>216</v>
       </c>
-      <c r="E510" s="10">
+      <c r="E510">
         <v>415.45</v>
       </c>
       <c r="F510" s="5">
@@ -24273,10 +24266,10 @@
       <c r="C511">
         <v>2021</v>
       </c>
-      <c r="D511" s="10" t="s">
+      <c r="D511" t="s">
         <v>217</v>
       </c>
-      <c r="E511" s="10">
+      <c r="E511">
         <v>415.45</v>
       </c>
       <c r="F511" s="5">
@@ -24293,10 +24286,10 @@
       <c r="C512">
         <v>2021</v>
       </c>
-      <c r="D512" s="10" t="s">
+      <c r="D512" t="s">
         <v>211</v>
       </c>
-      <c r="E512" s="10">
+      <c r="E512">
         <v>415.45</v>
       </c>
       <c r="F512" s="5">
@@ -24313,10 +24306,10 @@
       <c r="C513">
         <v>2021</v>
       </c>
-      <c r="D513" s="10" t="s">
+      <c r="D513" t="s">
         <v>218</v>
       </c>
-      <c r="E513" s="10">
+      <c r="E513">
         <v>415.45</v>
       </c>
       <c r="F513" s="5">
@@ -24333,10 +24326,10 @@
       <c r="C514">
         <v>2021</v>
       </c>
-      <c r="D514" s="10" t="s">
+      <c r="D514" t="s">
         <v>219</v>
       </c>
-      <c r="E514" s="10">
+      <c r="E514">
         <v>415.45</v>
       </c>
       <c r="F514" s="5">
@@ -24353,10 +24346,10 @@
       <c r="C515">
         <v>2021</v>
       </c>
-      <c r="D515" s="10" t="s">
+      <c r="D515" t="s">
         <v>210</v>
       </c>
-      <c r="E515" s="10">
+      <c r="E515">
         <v>415.45</v>
       </c>
       <c r="F515" s="5">
@@ -24373,10 +24366,10 @@
       <c r="C516">
         <v>2021</v>
       </c>
-      <c r="D516" s="10" t="s">
+      <c r="D516" t="s">
         <v>220</v>
       </c>
-      <c r="E516" s="10">
+      <c r="E516">
         <v>415.45</v>
       </c>
       <c r="F516" s="5">
@@ -24393,10 +24386,10 @@
       <c r="C517">
         <v>2021</v>
       </c>
-      <c r="D517" s="10" t="s">
+      <c r="D517" t="s">
         <v>221</v>
       </c>
-      <c r="E517" s="10">
+      <c r="E517">
         <v>415.45</v>
       </c>
       <c r="F517" s="5">
@@ -24413,10 +24406,10 @@
       <c r="C518">
         <v>2021</v>
       </c>
-      <c r="D518" s="10" t="s">
+      <c r="D518" t="s">
         <v>222</v>
       </c>
-      <c r="E518" s="10">
+      <c r="E518">
         <v>415.45</v>
       </c>
       <c r="F518" s="5">
@@ -24433,10 +24426,10 @@
       <c r="C519">
         <v>2021</v>
       </c>
-      <c r="D519" s="10" t="s">
+      <c r="D519" t="s">
         <v>223</v>
       </c>
-      <c r="E519" s="10">
+      <c r="E519">
         <v>415.45</v>
       </c>
       <c r="F519" s="5">
@@ -24453,10 +24446,10 @@
       <c r="C520">
         <v>2021</v>
       </c>
-      <c r="D520" s="10" t="s">
+      <c r="D520" t="s">
         <v>209</v>
       </c>
-      <c r="E520" s="10">
+      <c r="E520">
         <v>415.45</v>
       </c>
       <c r="F520" s="5">
@@ -24473,10 +24466,10 @@
       <c r="C521">
         <v>2021</v>
       </c>
-      <c r="D521" s="10" t="s">
+      <c r="D521" t="s">
         <v>224</v>
       </c>
-      <c r="E521" s="10">
+      <c r="E521">
         <v>415.45</v>
       </c>
       <c r="F521" s="5">
@@ -24493,10 +24486,10 @@
       <c r="C522">
         <v>2021</v>
       </c>
-      <c r="D522" s="10" t="s">
+      <c r="D522" t="s">
         <v>225</v>
       </c>
-      <c r="E522" s="10">
+      <c r="E522">
         <v>415.45</v>
       </c>
       <c r="F522" s="5">
@@ -24513,10 +24506,10 @@
       <c r="C523">
         <v>2021</v>
       </c>
-      <c r="D523" s="10" t="s">
+      <c r="D523" t="s">
         <v>226</v>
       </c>
-      <c r="E523" s="10">
+      <c r="E523">
         <v>415.45</v>
       </c>
       <c r="F523" s="5">
@@ -24533,10 +24526,10 @@
       <c r="C524">
         <v>2021</v>
       </c>
-      <c r="D524" s="10" t="s">
+      <c r="D524" t="s">
         <v>227</v>
       </c>
-      <c r="E524" s="10">
+      <c r="E524">
         <v>415.45</v>
       </c>
       <c r="F524" s="5">
@@ -24553,10 +24546,10 @@
       <c r="C525">
         <v>2021</v>
       </c>
-      <c r="D525" s="10" t="s">
+      <c r="D525" t="s">
         <v>228</v>
       </c>
-      <c r="E525" s="10">
+      <c r="E525">
         <v>415.45</v>
       </c>
       <c r="F525" s="5">
@@ -24573,10 +24566,10 @@
       <c r="C526">
         <v>2021</v>
       </c>
-      <c r="D526" s="10" t="s">
+      <c r="D526" t="s">
         <v>229</v>
       </c>
-      <c r="E526" s="10">
+      <c r="E526">
         <v>415.45</v>
       </c>
       <c r="F526" s="5">
@@ -24593,10 +24586,10 @@
       <c r="C527">
         <v>2022</v>
       </c>
-      <c r="D527" s="10" t="s">
+      <c r="D527" t="s">
         <v>212</v>
       </c>
-      <c r="E527" s="10">
+      <c r="E527">
         <v>390.77</v>
       </c>
       <c r="F527" s="6">
@@ -24613,10 +24606,10 @@
       <c r="C528">
         <v>2022</v>
       </c>
-      <c r="D528" s="10" t="s">
+      <c r="D528" t="s">
         <v>213</v>
       </c>
-      <c r="E528" s="10">
+      <c r="E528">
         <v>390.77</v>
       </c>
       <c r="F528" s="5">
@@ -24633,10 +24626,10 @@
       <c r="C529">
         <v>2022</v>
       </c>
-      <c r="D529" s="10" t="s">
+      <c r="D529" t="s">
         <v>214</v>
       </c>
-      <c r="E529" s="10">
+      <c r="E529">
         <v>390.77</v>
       </c>
       <c r="F529" s="5">
@@ -24653,10 +24646,10 @@
       <c r="C530">
         <v>2022</v>
       </c>
-      <c r="D530" s="10" t="s">
+      <c r="D530" t="s">
         <v>215</v>
       </c>
-      <c r="E530" s="10">
+      <c r="E530">
         <v>390.77</v>
       </c>
       <c r="F530" s="5">
@@ -24673,10 +24666,10 @@
       <c r="C531">
         <v>2022</v>
       </c>
-      <c r="D531" s="10" t="s">
+      <c r="D531" t="s">
         <v>216</v>
       </c>
-      <c r="E531" s="10">
+      <c r="E531">
         <v>390.77</v>
       </c>
       <c r="F531" s="5">
@@ -24693,10 +24686,10 @@
       <c r="C532">
         <v>2022</v>
       </c>
-      <c r="D532" s="10" t="s">
+      <c r="D532" t="s">
         <v>217</v>
       </c>
-      <c r="E532" s="10">
+      <c r="E532">
         <v>390.77</v>
       </c>
       <c r="F532" s="5">
@@ -24713,10 +24706,10 @@
       <c r="C533">
         <v>2022</v>
       </c>
-      <c r="D533" s="10" t="s">
+      <c r="D533" t="s">
         <v>211</v>
       </c>
-      <c r="E533" s="10">
+      <c r="E533">
         <v>390.77</v>
       </c>
       <c r="F533" s="5">
@@ -24733,10 +24726,10 @@
       <c r="C534">
         <v>2022</v>
       </c>
-      <c r="D534" s="10" t="s">
+      <c r="D534" t="s">
         <v>218</v>
       </c>
-      <c r="E534" s="10">
+      <c r="E534">
         <v>390.77</v>
       </c>
       <c r="F534" s="5">
@@ -24753,10 +24746,10 @@
       <c r="C535">
         <v>2022</v>
       </c>
-      <c r="D535" s="10" t="s">
+      <c r="D535" t="s">
         <v>219</v>
       </c>
-      <c r="E535" s="10">
+      <c r="E535">
         <v>390.77</v>
       </c>
       <c r="F535" s="5">
@@ -24773,10 +24766,10 @@
       <c r="C536">
         <v>2022</v>
       </c>
-      <c r="D536" s="10" t="s">
+      <c r="D536" t="s">
         <v>210</v>
       </c>
-      <c r="E536" s="10">
+      <c r="E536">
         <v>390.77</v>
       </c>
       <c r="F536" s="5">
@@ -24793,10 +24786,10 @@
       <c r="C537">
         <v>2022</v>
       </c>
-      <c r="D537" s="10" t="s">
+      <c r="D537" t="s">
         <v>220</v>
       </c>
-      <c r="E537" s="10">
+      <c r="E537">
         <v>390.77</v>
       </c>
       <c r="F537" s="5">
@@ -24813,10 +24806,10 @@
       <c r="C538">
         <v>2022</v>
       </c>
-      <c r="D538" s="10" t="s">
+      <c r="D538" t="s">
         <v>221</v>
       </c>
-      <c r="E538" s="10">
+      <c r="E538">
         <v>390.77</v>
       </c>
       <c r="F538" s="5">
@@ -24833,10 +24826,10 @@
       <c r="C539">
         <v>2022</v>
       </c>
-      <c r="D539" s="10" t="s">
+      <c r="D539" t="s">
         <v>222</v>
       </c>
-      <c r="E539" s="10">
+      <c r="E539">
         <v>390.77</v>
       </c>
       <c r="F539" s="5">
@@ -24853,10 +24846,10 @@
       <c r="C540">
         <v>2022</v>
       </c>
-      <c r="D540" s="10" t="s">
+      <c r="D540" t="s">
         <v>223</v>
       </c>
-      <c r="E540" s="10">
+      <c r="E540">
         <v>390.77</v>
       </c>
       <c r="F540" s="5">
@@ -24873,10 +24866,10 @@
       <c r="C541">
         <v>2022</v>
       </c>
-      <c r="D541" s="10" t="s">
+      <c r="D541" t="s">
         <v>209</v>
       </c>
-      <c r="E541" s="10">
+      <c r="E541">
         <v>390.77</v>
       </c>
       <c r="F541" s="5">
@@ -24893,10 +24886,10 @@
       <c r="C542">
         <v>2022</v>
       </c>
-      <c r="D542" s="10" t="s">
+      <c r="D542" t="s">
         <v>224</v>
       </c>
-      <c r="E542" s="10">
+      <c r="E542">
         <v>390.77</v>
       </c>
       <c r="F542" s="5">
@@ -24913,10 +24906,10 @@
       <c r="C543">
         <v>2022</v>
       </c>
-      <c r="D543" s="10" t="s">
+      <c r="D543" t="s">
         <v>225</v>
       </c>
-      <c r="E543" s="10">
+      <c r="E543">
         <v>390.77</v>
       </c>
       <c r="F543" s="5">
@@ -24933,10 +24926,10 @@
       <c r="C544">
         <v>2022</v>
       </c>
-      <c r="D544" s="10" t="s">
+      <c r="D544" t="s">
         <v>226</v>
       </c>
-      <c r="E544" s="10">
+      <c r="E544">
         <v>390.77</v>
       </c>
       <c r="F544" s="5">
@@ -24953,10 +24946,10 @@
       <c r="C545">
         <v>2022</v>
       </c>
-      <c r="D545" s="10" t="s">
+      <c r="D545" t="s">
         <v>227</v>
       </c>
-      <c r="E545" s="10">
+      <c r="E545">
         <v>390.77</v>
       </c>
       <c r="F545" s="5">
@@ -24973,10 +24966,10 @@
       <c r="C546">
         <v>2022</v>
       </c>
-      <c r="D546" s="10" t="s">
+      <c r="D546" t="s">
         <v>228</v>
       </c>
-      <c r="E546" s="10">
+      <c r="E546">
         <v>390.77</v>
       </c>
       <c r="F546" s="5">
@@ -24993,10 +24986,10 @@
       <c r="C547">
         <v>2022</v>
       </c>
-      <c r="D547" s="10" t="s">
+      <c r="D547" t="s">
         <v>229</v>
       </c>
-      <c r="E547" s="10">
+      <c r="E547">
         <v>390.77</v>
       </c>
       <c r="F547" s="5">
@@ -25013,10 +25006,10 @@
       <c r="C548">
         <v>2023</v>
       </c>
-      <c r="D548" s="10" t="s">
+      <c r="D548" t="s">
         <v>212</v>
       </c>
-      <c r="E548" s="10">
+      <c r="E548">
         <v>382.68</v>
       </c>
       <c r="F548" s="6">
@@ -25033,10 +25026,10 @@
       <c r="C549">
         <v>2023</v>
       </c>
-      <c r="D549" s="10" t="s">
+      <c r="D549" t="s">
         <v>213</v>
       </c>
-      <c r="E549" s="10">
+      <c r="E549">
         <v>382.68</v>
       </c>
       <c r="F549" s="5">
@@ -25053,10 +25046,10 @@
       <c r="C550">
         <v>2023</v>
       </c>
-      <c r="D550" s="10" t="s">
+      <c r="D550" t="s">
         <v>214</v>
       </c>
-      <c r="E550" s="10">
+      <c r="E550">
         <v>382.68</v>
       </c>
       <c r="F550" s="5">
@@ -25073,10 +25066,10 @@
       <c r="C551">
         <v>2023</v>
       </c>
-      <c r="D551" s="10" t="s">
+      <c r="D551" t="s">
         <v>215</v>
       </c>
-      <c r="E551" s="10">
+      <c r="E551">
         <v>382.68</v>
       </c>
       <c r="F551" s="5">
@@ -25093,10 +25086,10 @@
       <c r="C552">
         <v>2023</v>
       </c>
-      <c r="D552" s="10" t="s">
+      <c r="D552" t="s">
         <v>216</v>
       </c>
-      <c r="E552" s="10">
+      <c r="E552">
         <v>382.68</v>
       </c>
       <c r="F552" s="5">
@@ -25113,10 +25106,10 @@
       <c r="C553">
         <v>2023</v>
       </c>
-      <c r="D553" s="10" t="s">
+      <c r="D553" t="s">
         <v>217</v>
       </c>
-      <c r="E553" s="10">
+      <c r="E553">
         <v>382.68</v>
       </c>
       <c r="F553" s="5">
@@ -25133,10 +25126,10 @@
       <c r="C554">
         <v>2023</v>
       </c>
-      <c r="D554" s="10" t="s">
+      <c r="D554" t="s">
         <v>211</v>
       </c>
-      <c r="E554" s="10">
+      <c r="E554">
         <v>382.68</v>
       </c>
       <c r="F554" s="5">
@@ -25153,10 +25146,10 @@
       <c r="C555">
         <v>2023</v>
       </c>
-      <c r="D555" s="10" t="s">
+      <c r="D555" t="s">
         <v>218</v>
       </c>
-      <c r="E555" s="10">
+      <c r="E555">
         <v>382.68</v>
       </c>
       <c r="F555" s="5">
@@ -25173,10 +25166,10 @@
       <c r="C556">
         <v>2023</v>
       </c>
-      <c r="D556" s="10" t="s">
+      <c r="D556" t="s">
         <v>219</v>
       </c>
-      <c r="E556" s="10">
+      <c r="E556">
         <v>382.68</v>
       </c>
       <c r="F556" s="5">
@@ -25193,10 +25186,10 @@
       <c r="C557">
         <v>2023</v>
       </c>
-      <c r="D557" s="10" t="s">
+      <c r="D557" t="s">
         <v>210</v>
       </c>
-      <c r="E557" s="10">
+      <c r="E557">
         <v>382.68</v>
       </c>
       <c r="F557" s="5">
@@ -25213,10 +25206,10 @@
       <c r="C558">
         <v>2023</v>
       </c>
-      <c r="D558" s="10" t="s">
+      <c r="D558" t="s">
         <v>220</v>
       </c>
-      <c r="E558" s="10">
+      <c r="E558">
         <v>382.68</v>
       </c>
       <c r="F558" s="5">
@@ -25233,10 +25226,10 @@
       <c r="C559">
         <v>2023</v>
       </c>
-      <c r="D559" s="10" t="s">
+      <c r="D559" t="s">
         <v>221</v>
       </c>
-      <c r="E559" s="10">
+      <c r="E559">
         <v>382.68</v>
       </c>
       <c r="F559" s="5">
@@ -25253,10 +25246,10 @@
       <c r="C560">
         <v>2023</v>
       </c>
-      <c r="D560" s="10" t="s">
+      <c r="D560" t="s">
         <v>222</v>
       </c>
-      <c r="E560" s="10">
+      <c r="E560">
         <v>382.68</v>
       </c>
       <c r="F560" s="5">
@@ -25273,10 +25266,10 @@
       <c r="C561">
         <v>2023</v>
       </c>
-      <c r="D561" s="10" t="s">
+      <c r="D561" t="s">
         <v>223</v>
       </c>
-      <c r="E561" s="10">
+      <c r="E561">
         <v>382.68</v>
       </c>
       <c r="F561" s="5">
@@ -25293,10 +25286,10 @@
       <c r="C562">
         <v>2023</v>
       </c>
-      <c r="D562" s="10" t="s">
+      <c r="D562" t="s">
         <v>209</v>
       </c>
-      <c r="E562" s="10">
+      <c r="E562">
         <v>382.68</v>
       </c>
       <c r="F562" s="5">
@@ -25313,10 +25306,10 @@
       <c r="C563">
         <v>2023</v>
       </c>
-      <c r="D563" s="10" t="s">
+      <c r="D563" t="s">
         <v>224</v>
       </c>
-      <c r="E563" s="10">
+      <c r="E563">
         <v>382.68</v>
       </c>
       <c r="F563" s="5">
@@ -25333,10 +25326,10 @@
       <c r="C564">
         <v>2023</v>
       </c>
-      <c r="D564" s="10" t="s">
+      <c r="D564" t="s">
         <v>225</v>
       </c>
-      <c r="E564" s="10">
+      <c r="E564">
         <v>382.68</v>
       </c>
       <c r="F564" s="5">
@@ -25353,10 +25346,10 @@
       <c r="C565">
         <v>2023</v>
       </c>
-      <c r="D565" s="10" t="s">
+      <c r="D565" t="s">
         <v>226</v>
       </c>
-      <c r="E565" s="10">
+      <c r="E565">
         <v>382.68</v>
       </c>
       <c r="F565" s="5">
@@ -25373,10 +25366,10 @@
       <c r="C566">
         <v>2023</v>
       </c>
-      <c r="D566" s="10" t="s">
+      <c r="D566" t="s">
         <v>227</v>
       </c>
-      <c r="E566" s="10">
+      <c r="E566">
         <v>382.68</v>
       </c>
       <c r="F566" s="5">
@@ -25393,10 +25386,10 @@
       <c r="C567">
         <v>2023</v>
       </c>
-      <c r="D567" s="10" t="s">
+      <c r="D567" t="s">
         <v>228</v>
       </c>
-      <c r="E567" s="10">
+      <c r="E567">
         <v>382.68</v>
       </c>
       <c r="F567" s="5">
@@ -25413,10 +25406,10 @@
       <c r="C568">
         <v>2023</v>
       </c>
-      <c r="D568" s="10" t="s">
+      <c r="D568" t="s">
         <v>229</v>
       </c>
-      <c r="E568" s="10">
+      <c r="E568">
         <v>382.68</v>
       </c>
       <c r="F568" s="5">
@@ -25433,10 +25426,10 @@
       <c r="C569">
         <v>2024</v>
       </c>
-      <c r="D569" s="10" t="s">
+      <c r="D569" t="s">
         <v>212</v>
       </c>
-      <c r="E569" s="13">
+      <c r="E569" s="1">
         <v>388.9</v>
       </c>
       <c r="F569" s="6">
@@ -25453,10 +25446,10 @@
       <c r="C570">
         <v>2024</v>
       </c>
-      <c r="D570" s="10" t="s">
+      <c r="D570" t="s">
         <v>213</v>
       </c>
-      <c r="E570" s="13">
+      <c r="E570" s="1">
         <v>388.9</v>
       </c>
       <c r="F570" s="5">
@@ -25473,10 +25466,10 @@
       <c r="C571">
         <v>2024</v>
       </c>
-      <c r="D571" s="10" t="s">
+      <c r="D571" t="s">
         <v>214</v>
       </c>
-      <c r="E571" s="13">
+      <c r="E571" s="1">
         <v>388.9</v>
       </c>
       <c r="F571" s="5">
@@ -25493,10 +25486,10 @@
       <c r="C572">
         <v>2024</v>
       </c>
-      <c r="D572" s="10" t="s">
+      <c r="D572" t="s">
         <v>215</v>
       </c>
-      <c r="E572" s="13">
+      <c r="E572" s="1">
         <v>388.9</v>
       </c>
       <c r="F572" s="5">
@@ -25513,10 +25506,10 @@
       <c r="C573">
         <v>2024</v>
       </c>
-      <c r="D573" s="10" t="s">
+      <c r="D573" t="s">
         <v>216</v>
       </c>
-      <c r="E573" s="13">
+      <c r="E573" s="1">
         <v>388.9</v>
       </c>
       <c r="F573" s="5">
@@ -25533,10 +25526,10 @@
       <c r="C574">
         <v>2024</v>
       </c>
-      <c r="D574" s="10" t="s">
+      <c r="D574" t="s">
         <v>217</v>
       </c>
-      <c r="E574" s="13">
+      <c r="E574" s="1">
         <v>388.9</v>
       </c>
       <c r="F574" s="5">
@@ -25553,10 +25546,10 @@
       <c r="C575">
         <v>2024</v>
       </c>
-      <c r="D575" s="10" t="s">
+      <c r="D575" t="s">
         <v>211</v>
       </c>
-      <c r="E575" s="13">
+      <c r="E575" s="1">
         <v>388.9</v>
       </c>
       <c r="F575" s="5">
@@ -25573,10 +25566,10 @@
       <c r="C576">
         <v>2024</v>
       </c>
-      <c r="D576" s="10" t="s">
+      <c r="D576" t="s">
         <v>218</v>
       </c>
-      <c r="E576" s="13">
+      <c r="E576" s="1">
         <v>388.9</v>
       </c>
       <c r="F576" s="5">
@@ -25593,10 +25586,10 @@
       <c r="C577">
         <v>2024</v>
       </c>
-      <c r="D577" s="10" t="s">
+      <c r="D577" t="s">
         <v>219</v>
       </c>
-      <c r="E577" s="13">
+      <c r="E577" s="1">
         <v>388.9</v>
       </c>
       <c r="F577" s="5">
@@ -25613,10 +25606,10 @@
       <c r="C578">
         <v>2024</v>
       </c>
-      <c r="D578" s="10" t="s">
+      <c r="D578" t="s">
         <v>210</v>
       </c>
-      <c r="E578" s="13">
+      <c r="E578" s="1">
         <v>388.9</v>
       </c>
       <c r="F578" s="5">
@@ -25633,10 +25626,10 @@
       <c r="C579">
         <v>2024</v>
       </c>
-      <c r="D579" s="10" t="s">
+      <c r="D579" t="s">
         <v>220</v>
       </c>
-      <c r="E579" s="13">
+      <c r="E579" s="1">
         <v>388.9</v>
       </c>
       <c r="F579" s="5">
@@ -25653,10 +25646,10 @@
       <c r="C580">
         <v>2024</v>
       </c>
-      <c r="D580" s="10" t="s">
+      <c r="D580" t="s">
         <v>221</v>
       </c>
-      <c r="E580" s="13">
+      <c r="E580" s="1">
         <v>388.9</v>
       </c>
       <c r="F580" s="5">
@@ -25673,10 +25666,10 @@
       <c r="C581">
         <v>2024</v>
       </c>
-      <c r="D581" s="10" t="s">
+      <c r="D581" t="s">
         <v>222</v>
       </c>
-      <c r="E581" s="13">
+      <c r="E581" s="1">
         <v>388.9</v>
       </c>
       <c r="F581" s="5">
@@ -25693,10 +25686,10 @@
       <c r="C582">
         <v>2024</v>
       </c>
-      <c r="D582" s="10" t="s">
+      <c r="D582" t="s">
         <v>223</v>
       </c>
-      <c r="E582" s="13">
+      <c r="E582" s="1">
         <v>388.9</v>
       </c>
       <c r="F582" s="5">
@@ -25713,10 +25706,10 @@
       <c r="C583">
         <v>2024</v>
       </c>
-      <c r="D583" s="10" t="s">
+      <c r="D583" t="s">
         <v>209</v>
       </c>
-      <c r="E583" s="13">
+      <c r="E583" s="1">
         <v>388.9</v>
       </c>
       <c r="F583" s="5">
@@ -25733,10 +25726,10 @@
       <c r="C584">
         <v>2024</v>
       </c>
-      <c r="D584" s="10" t="s">
+      <c r="D584" t="s">
         <v>224</v>
       </c>
-      <c r="E584" s="13">
+      <c r="E584" s="1">
         <v>388.9</v>
       </c>
       <c r="F584" s="5">
@@ -25753,10 +25746,10 @@
       <c r="C585">
         <v>2024</v>
       </c>
-      <c r="D585" s="10" t="s">
+      <c r="D585" t="s">
         <v>225</v>
       </c>
-      <c r="E585" s="13">
+      <c r="E585" s="1">
         <v>388.9</v>
       </c>
       <c r="F585" s="5">
@@ -25773,10 +25766,10 @@
       <c r="C586">
         <v>2024</v>
       </c>
-      <c r="D586" s="10" t="s">
+      <c r="D586" t="s">
         <v>226</v>
       </c>
-      <c r="E586" s="13">
+      <c r="E586" s="1">
         <v>388.9</v>
       </c>
       <c r="F586" s="5">
@@ -25793,10 +25786,10 @@
       <c r="C587">
         <v>2024</v>
       </c>
-      <c r="D587" s="10" t="s">
+      <c r="D587" t="s">
         <v>227</v>
       </c>
-      <c r="E587" s="13">
+      <c r="E587" s="1">
         <v>388.9</v>
       </c>
       <c r="F587" s="5">
@@ -25813,10 +25806,10 @@
       <c r="C588">
         <v>2024</v>
       </c>
-      <c r="D588" s="10" t="s">
+      <c r="D588" t="s">
         <v>228</v>
       </c>
-      <c r="E588" s="13">
+      <c r="E588" s="1">
         <v>388.9</v>
       </c>
       <c r="F588" s="5">
@@ -25833,10 +25826,10 @@
       <c r="C589">
         <v>2024</v>
       </c>
-      <c r="D589" s="10" t="s">
+      <c r="D589" t="s">
         <v>229</v>
       </c>
-      <c r="E589" s="13">
+      <c r="E589" s="1">
         <v>388.9</v>
       </c>
       <c r="F589" s="5">
